--- a/votefinal.xlsx
+++ b/votefinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D98E9-6F28-43EF-A200-230917A8F695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8927F4-29E1-4556-B2F7-F959247D006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5572CD91-9B1E-4767-8E4C-6FD15F1CA69B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5572CD91-9B1E-4767-8E4C-6FD15F1CA69B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>County</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Cumulative In-Person Voters</t>
   </si>
   <si>
-    <t>Cumulative % In-Person</t>
-  </si>
-  <si>
     <t>Cumulative By Mail Voters</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
     <t>FRIO</t>
   </si>
   <si>
-    <t>DEAF SMITH</t>
-  </si>
-  <si>
     <t>NOLAN</t>
   </si>
   <si>
@@ -810,10 +804,13 @@
     <t>LOVING</t>
   </si>
   <si>
+    <t>Meadian Household Income</t>
+  </si>
+  <si>
     <t>Total Early Voting</t>
   </si>
   <si>
-    <t>Median Household Income</t>
+    <t>Cumulative In-Person</t>
   </si>
 </sst>
 </file>
@@ -870,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -882,9 +879,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,7 +1198,7 @@
   <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,24 +1217,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3">
         <v>29274</v>
@@ -1251,8 +1245,8 @@
       <c r="D2" s="3">
         <v>13187</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.45050000000000001</v>
+      <c r="E2" s="4">
+        <v>45.05</v>
       </c>
       <c r="F2" s="3">
         <v>1252</v>
@@ -1260,8 +1254,8 @@
       <c r="G2" s="3">
         <v>14439</v>
       </c>
-      <c r="H2" s="5">
-        <v>0.49320000000000003</v>
+      <c r="H2" s="4">
+        <v>49.32</v>
       </c>
       <c r="I2" s="3">
         <v>50879</v>
@@ -1269,7 +1263,7 @@
     </row>
     <row r="3" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3">
         <v>10272</v>
@@ -1280,8 +1274,8 @@
       <c r="D3" s="3">
         <v>4576</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.44550000000000001</v>
+      <c r="E3" s="4">
+        <v>44.55</v>
       </c>
       <c r="F3" s="4">
         <v>160</v>
@@ -1289,8 +1283,8 @@
       <c r="G3" s="3">
         <v>4736</v>
       </c>
-      <c r="H3" s="5">
-        <v>0.46110000000000001</v>
+      <c r="H3" s="4">
+        <v>46.11</v>
       </c>
       <c r="I3" s="3">
         <v>76600</v>
@@ -1298,7 +1292,7 @@
     </row>
     <row r="4" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3">
         <v>53166</v>
@@ -1309,8 +1303,8 @@
       <c r="D4" s="3">
         <v>25869</v>
       </c>
-      <c r="E4" s="5">
-        <v>0.48659999999999998</v>
+      <c r="E4" s="4">
+        <v>48.66</v>
       </c>
       <c r="F4" s="3">
         <v>2732</v>
@@ -1318,8 +1312,8 @@
       <c r="G4" s="3">
         <v>28601</v>
       </c>
-      <c r="H4" s="5">
-        <v>0.53800000000000003</v>
+      <c r="H4" s="4">
+        <v>53.8</v>
       </c>
       <c r="I4" s="3">
         <v>49943</v>
@@ -1327,7 +1321,7 @@
     </row>
     <row r="5" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3">
         <v>18306</v>
@@ -1338,8 +1332,8 @@
       <c r="D5" s="3">
         <v>9451</v>
       </c>
-      <c r="E5" s="5">
-        <v>0.51629999999999998</v>
+      <c r="E5" s="4">
+        <v>51.63</v>
       </c>
       <c r="F5" s="3">
         <v>1451</v>
@@ -1347,8 +1341,8 @@
       <c r="G5" s="3">
         <v>10902</v>
       </c>
-      <c r="H5" s="5">
-        <v>0.59550000000000003</v>
+      <c r="H5" s="4">
+        <v>59.55</v>
       </c>
       <c r="I5" s="3">
         <v>51461</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" s="3">
         <v>6538</v>
@@ -1367,8 +1361,8 @@
       <c r="D6" s="3">
         <v>3319</v>
       </c>
-      <c r="E6" s="5">
-        <v>0.50760000000000005</v>
+      <c r="E6" s="4">
+        <v>50.76</v>
       </c>
       <c r="F6" s="4">
         <v>304</v>
@@ -1376,8 +1370,8 @@
       <c r="G6" s="3">
         <v>3623</v>
       </c>
-      <c r="H6" s="5">
-        <v>0.55410000000000004</v>
+      <c r="H6" s="4">
+        <v>55.41</v>
       </c>
       <c r="I6" s="3">
         <v>69566</v>
@@ -1385,7 +1379,7 @@
     </row>
     <row r="7" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" s="3">
         <v>1498</v>
@@ -1396,8 +1390,8 @@
       <c r="D7" s="4">
         <v>767</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.51200000000000001</v>
+      <c r="E7" s="4">
+        <v>51.2</v>
       </c>
       <c r="F7" s="4">
         <v>75</v>
@@ -1405,8 +1399,8 @@
       <c r="G7" s="4">
         <v>842</v>
       </c>
-      <c r="H7" s="5">
-        <v>0.56210000000000004</v>
+      <c r="H7" s="4">
+        <v>56.21</v>
       </c>
       <c r="I7" s="3">
         <v>62256</v>
@@ -1414,7 +1408,7 @@
     </row>
     <row r="8" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3">
         <v>29409</v>
@@ -1425,8 +1419,8 @@
       <c r="D8" s="3">
         <v>13211</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.44919999999999999</v>
+      <c r="E8" s="4">
+        <v>44.92</v>
       </c>
       <c r="F8" s="3">
         <v>1525</v>
@@ -1434,8 +1428,8 @@
       <c r="G8" s="3">
         <v>14736</v>
       </c>
-      <c r="H8" s="5">
-        <v>0.50109999999999999</v>
+      <c r="H8" s="4">
+        <v>50.11</v>
       </c>
       <c r="I8" s="3">
         <v>60594</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3">
         <v>20293</v>
@@ -1454,8 +1448,8 @@
       <c r="D9" s="3">
         <v>10336</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.50929999999999997</v>
+      <c r="E9" s="4">
+        <v>50.93</v>
       </c>
       <c r="F9" s="3">
         <v>1113</v>
@@ -1463,8 +1457,8 @@
       <c r="G9" s="3">
         <v>11449</v>
       </c>
-      <c r="H9" s="5">
-        <v>0.56420000000000003</v>
+      <c r="H9" s="4">
+        <v>56.42</v>
       </c>
       <c r="I9" s="3">
         <v>60593</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="3">
         <v>3539</v>
@@ -1483,8 +1477,8 @@
       <c r="D10" s="3">
         <v>1130</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.31929999999999997</v>
+      <c r="E10" s="4">
+        <v>31.93</v>
       </c>
       <c r="F10" s="4">
         <v>149</v>
@@ -1492,8 +1486,8 @@
       <c r="G10" s="3">
         <v>1279</v>
       </c>
-      <c r="H10" s="5">
-        <v>0.3614</v>
+      <c r="H10" s="4">
+        <v>36.14</v>
       </c>
       <c r="I10" s="3">
         <v>48259</v>
@@ -1501,7 +1495,7 @@
     </row>
     <row r="11" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3">
         <v>17098</v>
@@ -1512,8 +1506,8 @@
       <c r="D11" s="3">
         <v>10046</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.58760000000000001</v>
+      <c r="E11" s="4">
+        <v>58.76</v>
       </c>
       <c r="F11" s="4">
         <v>977</v>
@@ -1521,8 +1515,8 @@
       <c r="G11" s="3">
         <v>11023</v>
       </c>
-      <c r="H11" s="5">
-        <v>0.64470000000000005</v>
+      <c r="H11" s="4">
+        <v>64.47</v>
       </c>
       <c r="I11" s="3">
         <v>64389</v>
@@ -1530,7 +1524,7 @@
     </row>
     <row r="12" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3">
         <v>52096</v>
@@ -1541,8 +1535,8 @@
       <c r="D12" s="3">
         <v>27077</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.51980000000000004</v>
+      <c r="E12" s="4">
+        <v>51.98</v>
       </c>
       <c r="F12" s="3">
         <v>4300</v>
@@ -1550,8 +1544,8 @@
       <c r="G12" s="3">
         <v>31377</v>
       </c>
-      <c r="H12" s="5">
-        <v>0.60229999999999995</v>
+      <c r="H12" s="4">
+        <v>60.23</v>
       </c>
       <c r="I12" s="3">
         <v>74612</v>
@@ -1559,7 +1553,7 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13" s="3">
         <v>2408</v>
@@ -1570,8 +1564,8 @@
       <c r="D13" s="3">
         <v>1257</v>
       </c>
-      <c r="E13" s="5">
-        <v>0.52200000000000002</v>
+      <c r="E13" s="4">
+        <v>52.2</v>
       </c>
       <c r="F13" s="4">
         <v>126</v>
@@ -1579,8 +1573,8 @@
       <c r="G13" s="3">
         <v>1383</v>
       </c>
-      <c r="H13" s="5">
-        <v>0.57430000000000003</v>
+      <c r="H13" s="4">
+        <v>57.43</v>
       </c>
       <c r="I13" s="3">
         <v>44392</v>
@@ -1588,7 +1582,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3">
         <v>16033</v>
@@ -1599,8 +1593,8 @@
       <c r="D14" s="3">
         <v>6460</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.40289999999999998</v>
+      <c r="E14" s="4">
+        <v>40.29</v>
       </c>
       <c r="F14" s="3">
         <v>1074</v>
@@ -1608,8 +1602,8 @@
       <c r="G14" s="3">
         <v>7534</v>
       </c>
-      <c r="H14" s="5">
-        <v>0.46989999999999998</v>
+      <c r="H14" s="4">
+        <v>46.99</v>
       </c>
       <c r="I14" s="3">
         <v>46316</v>
@@ -1617,7 +1611,7 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
         <v>215974</v>
@@ -1628,8 +1622,8 @@
       <c r="D15" s="3">
         <v>92522</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.4284</v>
+      <c r="E15" s="4">
+        <v>42.84</v>
       </c>
       <c r="F15" s="3">
         <v>11233</v>
@@ -1637,8 +1631,8 @@
       <c r="G15" s="3">
         <v>103755</v>
       </c>
-      <c r="H15" s="5">
-        <v>0.48039999999999999</v>
+      <c r="H15" s="4">
+        <v>48.04</v>
       </c>
       <c r="I15" s="3">
         <v>53639</v>
@@ -1646,7 +1640,7 @@
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3">
         <v>1189373</v>
@@ -1657,8 +1651,8 @@
       <c r="D16" s="3">
         <v>595284</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.50049999999999994</v>
+      <c r="E16" s="4">
+        <v>50.05</v>
       </c>
       <c r="F16" s="3">
         <v>84725</v>
@@ -1666,8 +1660,8 @@
       <c r="G16" s="3">
         <v>680009</v>
       </c>
-      <c r="H16" s="5">
-        <v>0.57169999999999999</v>
+      <c r="H16" s="4">
+        <v>57.17</v>
       </c>
       <c r="I16" s="3">
         <v>60477</v>
@@ -1675,7 +1669,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3">
         <v>9344</v>
@@ -1686,8 +1680,8 @@
       <c r="D17" s="3">
         <v>5633</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.6028</v>
+      <c r="E17" s="4">
+        <v>60.28</v>
       </c>
       <c r="F17" s="4">
         <v>734</v>
@@ -1695,8 +1689,8 @@
       <c r="G17" s="3">
         <v>6367</v>
       </c>
-      <c r="H17" s="5">
-        <v>0.68140000000000001</v>
+      <c r="H17" s="4">
+        <v>68.14</v>
       </c>
       <c r="I17" s="3">
         <v>66383</v>
@@ -1704,7 +1698,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B18" s="4">
         <v>499</v>
@@ -1715,8 +1709,8 @@
       <c r="D18" s="4">
         <v>275</v>
       </c>
-      <c r="E18" s="5">
-        <v>0.55110000000000003</v>
+      <c r="E18" s="4">
+        <v>55.11</v>
       </c>
       <c r="F18" s="4">
         <v>28</v>
@@ -1724,8 +1718,8 @@
       <c r="G18" s="4">
         <v>303</v>
       </c>
-      <c r="H18" s="5">
-        <v>0.60719999999999996</v>
+      <c r="H18" s="4">
+        <v>60.72</v>
       </c>
       <c r="I18" s="3">
         <v>69499</v>
@@ -1733,7 +1727,7 @@
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="3">
         <v>12724</v>
@@ -1744,8 +1738,8 @@
       <c r="D19" s="3">
         <v>5814</v>
       </c>
-      <c r="E19" s="5">
-        <v>0.45689999999999997</v>
+      <c r="E19" s="4">
+        <v>45.69</v>
       </c>
       <c r="F19" s="4">
         <v>701</v>
@@ -1753,8 +1747,8 @@
       <c r="G19" s="3">
         <v>6515</v>
       </c>
-      <c r="H19" s="5">
-        <v>0.51200000000000001</v>
+      <c r="H19" s="4">
+        <v>51.2</v>
       </c>
       <c r="I19" s="3">
         <v>58056</v>
@@ -1762,7 +1756,7 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3">
         <v>61407</v>
@@ -1773,8 +1767,8 @@
       <c r="D20" s="3">
         <v>26714</v>
       </c>
-      <c r="E20" s="5">
-        <v>0.435</v>
+      <c r="E20" s="4">
+        <v>43.5</v>
       </c>
       <c r="F20" s="3">
         <v>3241</v>
@@ -1782,8 +1776,8 @@
       <c r="G20" s="3">
         <v>29955</v>
       </c>
-      <c r="H20" s="5">
-        <v>0.48780000000000001</v>
+      <c r="H20" s="4">
+        <v>48.78</v>
       </c>
       <c r="I20" s="3">
         <v>50326</v>
@@ -1791,7 +1785,7 @@
     </row>
     <row r="21" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>224256</v>
@@ -1802,8 +1796,8 @@
       <c r="D21" s="3">
         <v>128971</v>
       </c>
-      <c r="E21" s="5">
-        <v>0.57509999999999994</v>
+      <c r="E21" s="4">
+        <v>57.51</v>
       </c>
       <c r="F21" s="3">
         <v>10493</v>
@@ -1811,8 +1805,8 @@
       <c r="G21" s="3">
         <v>139464</v>
       </c>
-      <c r="H21" s="5">
-        <v>0.62190000000000001</v>
+      <c r="H21" s="4">
+        <v>62.19</v>
       </c>
       <c r="I21" s="3">
         <v>83576</v>
@@ -1820,7 +1814,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
         <v>122137</v>
@@ -1831,8 +1825,8 @@
       <c r="D22" s="3">
         <v>64137</v>
       </c>
-      <c r="E22" s="5">
-        <v>0.52510000000000001</v>
+      <c r="E22" s="4">
+        <v>52.51</v>
       </c>
       <c r="F22" s="3">
         <v>6287</v>
@@ -1840,8 +1834,8 @@
       <c r="G22" s="3">
         <v>70424</v>
       </c>
-      <c r="H22" s="5">
-        <v>0.5766</v>
+      <c r="H22" s="4">
+        <v>57.66</v>
       </c>
       <c r="I22" s="3">
         <v>53570</v>
@@ -1849,7 +1843,7 @@
     </row>
     <row r="23" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3">
         <v>7524</v>
@@ -1860,8 +1854,8 @@
       <c r="D23" s="3">
         <v>3418</v>
       </c>
-      <c r="E23" s="5">
-        <v>0.45429999999999998</v>
+      <c r="E23" s="4">
+        <v>45.43</v>
       </c>
       <c r="F23" s="4">
         <v>604</v>
@@ -1869,8 +1863,8 @@
       <c r="G23" s="3">
         <v>4022</v>
       </c>
-      <c r="H23" s="5">
-        <v>0.53459999999999996</v>
+      <c r="H23" s="4">
+        <v>53.46</v>
       </c>
       <c r="I23" s="3">
         <v>48537</v>
@@ -1878,7 +1872,7 @@
     </row>
     <row r="24" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="3">
         <v>1025</v>
@@ -1889,8 +1883,8 @@
       <c r="D24" s="4">
         <v>354</v>
       </c>
-      <c r="E24" s="5">
-        <v>0.34539999999999998</v>
+      <c r="E24" s="4">
+        <v>34.54</v>
       </c>
       <c r="F24" s="4">
         <v>96</v>
@@ -1898,8 +1892,8 @@
       <c r="G24" s="4">
         <v>450</v>
       </c>
-      <c r="H24" s="5">
-        <v>0.439</v>
+      <c r="H24" s="4">
+        <v>43.9</v>
       </c>
       <c r="I24" s="3">
         <v>50062</v>
@@ -1907,7 +1901,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="3">
         <v>5521</v>
@@ -1918,8 +1912,8 @@
       <c r="D25" s="3">
         <v>1482</v>
       </c>
-      <c r="E25" s="5">
-        <v>0.26840000000000003</v>
+      <c r="E25" s="4">
+        <v>26.84</v>
       </c>
       <c r="F25" s="4">
         <v>299</v>
@@ -1927,8 +1921,8 @@
       <c r="G25" s="3">
         <v>1781</v>
       </c>
-      <c r="H25" s="5">
-        <v>0.3226</v>
+      <c r="H25" s="4">
+        <v>32.26</v>
       </c>
       <c r="I25" s="3">
         <v>33513</v>
@@ -1936,7 +1930,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3">
         <v>23954</v>
@@ -1947,8 +1941,8 @@
       <c r="D26" s="3">
         <v>11197</v>
       </c>
-      <c r="E26" s="5">
-        <v>0.46739999999999998</v>
+      <c r="E26" s="4">
+        <v>46.74</v>
       </c>
       <c r="F26" s="3">
         <v>1212</v>
@@ -1956,8 +1950,8 @@
       <c r="G26" s="3">
         <v>12409</v>
       </c>
-      <c r="H26" s="5">
-        <v>0.51800000000000002</v>
+      <c r="H26" s="4">
+        <v>51.8</v>
       </c>
       <c r="I26" s="3">
         <v>48752</v>
@@ -1965,7 +1959,7 @@
     </row>
     <row r="27" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="3">
         <v>12440</v>
@@ -1976,8 +1970,8 @@
       <c r="D27" s="3">
         <v>5791</v>
       </c>
-      <c r="E27" s="5">
-        <v>0.46550000000000002</v>
+      <c r="E27" s="4">
+        <v>46.55</v>
       </c>
       <c r="F27" s="4">
         <v>869</v>
@@ -1985,8 +1979,8 @@
       <c r="G27" s="3">
         <v>6660</v>
       </c>
-      <c r="H27" s="5">
-        <v>0.53539999999999999</v>
+      <c r="H27" s="4">
+        <v>53.54</v>
       </c>
       <c r="I27" s="3">
         <v>64836</v>
@@ -1994,7 +1988,7 @@
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3">
         <v>33697</v>
@@ -2005,8 +1999,8 @@
       <c r="D28" s="3">
         <v>17829</v>
       </c>
-      <c r="E28" s="5">
-        <v>0.52910000000000001</v>
+      <c r="E28" s="4">
+        <v>52.91</v>
       </c>
       <c r="F28" s="3">
         <v>2857</v>
@@ -2014,8 +2008,8 @@
       <c r="G28" s="3">
         <v>20686</v>
       </c>
-      <c r="H28" s="5">
-        <v>0.6139</v>
+      <c r="H28" s="4">
+        <v>61.39</v>
       </c>
       <c r="I28" s="3">
         <v>63813</v>
@@ -2023,7 +2017,7 @@
     </row>
     <row r="29" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3">
         <v>25945</v>
@@ -2034,8 +2028,8 @@
       <c r="D29" s="3">
         <v>10960</v>
       </c>
-      <c r="E29" s="5">
-        <v>0.4224</v>
+      <c r="E29" s="4">
+        <v>42.24</v>
       </c>
       <c r="F29" s="3">
         <v>1263</v>
@@ -2043,8 +2037,8 @@
       <c r="G29" s="3">
         <v>12223</v>
       </c>
-      <c r="H29" s="5">
-        <v>0.47110000000000002</v>
+      <c r="H29" s="4">
+        <v>47.11</v>
       </c>
       <c r="I29" s="3">
         <v>66128</v>
@@ -2052,7 +2046,7 @@
     </row>
     <row r="30" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3">
         <v>13080</v>
@@ -2063,8 +2057,8 @@
       <c r="D30" s="3">
         <v>4875</v>
       </c>
-      <c r="E30" s="5">
-        <v>0.37269999999999998</v>
+      <c r="E30" s="4">
+        <v>37.270000000000003</v>
       </c>
       <c r="F30" s="4">
         <v>716</v>
@@ -2072,8 +2066,8 @@
       <c r="G30" s="3">
         <v>5591</v>
       </c>
-      <c r="H30" s="5">
-        <v>0.4274</v>
+      <c r="H30" s="4">
+        <v>42.74</v>
       </c>
       <c r="I30" s="3">
         <v>58470</v>
@@ -2081,7 +2075,7 @@
     </row>
     <row r="31" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3">
         <v>9773</v>
@@ -2092,8 +2086,8 @@
       <c r="D31" s="3">
         <v>4938</v>
       </c>
-      <c r="E31" s="5">
-        <v>0.50529999999999997</v>
+      <c r="E31" s="4">
+        <v>50.53</v>
       </c>
       <c r="F31" s="4">
         <v>491</v>
@@ -2101,8 +2095,8 @@
       <c r="G31" s="3">
         <v>5429</v>
       </c>
-      <c r="H31" s="5">
-        <v>0.55549999999999999</v>
+      <c r="H31" s="4">
+        <v>55.55</v>
       </c>
       <c r="I31" s="3">
         <v>54862</v>
@@ -2110,7 +2104,7 @@
     </row>
     <row r="32" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3">
         <v>218910</v>
@@ -2121,8 +2115,8 @@
       <c r="D32" s="3">
         <v>86906</v>
       </c>
-      <c r="E32" s="5">
-        <v>0.39700000000000002</v>
+      <c r="E32" s="4">
+        <v>39.700000000000003</v>
       </c>
       <c r="F32" s="3">
         <v>9435</v>
@@ -2130,8 +2124,8 @@
       <c r="G32" s="3">
         <v>96341</v>
       </c>
-      <c r="H32" s="5">
-        <v>0.44009999999999999</v>
+      <c r="H32" s="4">
+        <v>44.01</v>
       </c>
       <c r="I32" s="3">
         <v>44440</v>
@@ -2139,7 +2133,7 @@
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="3">
         <v>7904</v>
@@ -2150,8 +2144,8 @@
       <c r="D33" s="3">
         <v>3816</v>
       </c>
-      <c r="E33" s="5">
-        <v>0.48280000000000001</v>
+      <c r="E33" s="4">
+        <v>48.28</v>
       </c>
       <c r="F33" s="4">
         <v>314</v>
@@ -2159,8 +2153,8 @@
       <c r="G33" s="3">
         <v>4130</v>
       </c>
-      <c r="H33" s="5">
-        <v>0.52249999999999996</v>
+      <c r="H33" s="4">
+        <v>52.25</v>
       </c>
       <c r="I33" s="3">
         <v>43130</v>
@@ -2168,7 +2162,7 @@
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B34" s="3">
         <v>4345</v>
@@ -2179,8 +2173,8 @@
       <c r="D34" s="3">
         <v>1771</v>
       </c>
-      <c r="E34" s="5">
-        <v>0.40760000000000002</v>
+      <c r="E34" s="4">
+        <v>40.76</v>
       </c>
       <c r="F34" s="4">
         <v>137</v>
@@ -2188,8 +2182,8 @@
       <c r="G34" s="3">
         <v>1908</v>
       </c>
-      <c r="H34" s="5">
-        <v>0.43909999999999999</v>
+      <c r="H34" s="4">
+        <v>43.91</v>
       </c>
       <c r="I34" s="3">
         <v>66597</v>
@@ -2197,7 +2191,7 @@
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="3">
         <v>20889</v>
@@ -2208,8 +2202,8 @@
       <c r="D35" s="3">
         <v>9283</v>
       </c>
-      <c r="E35" s="5">
-        <v>0.44440000000000002</v>
+      <c r="E35" s="4">
+        <v>44.44</v>
       </c>
       <c r="F35" s="4">
         <v>22</v>
@@ -2217,8 +2211,8 @@
       <c r="G35" s="3">
         <v>9305</v>
       </c>
-      <c r="H35" s="5">
-        <v>0.44540000000000002</v>
+      <c r="H35" s="4">
+        <v>44.54</v>
       </c>
       <c r="I35" s="3">
         <v>50595</v>
@@ -2226,7 +2220,7 @@
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B36" s="3">
         <v>3853</v>
@@ -2237,8 +2231,8 @@
       <c r="D36" s="4">
         <v>988</v>
       </c>
-      <c r="E36" s="5">
-        <v>0.25640000000000002</v>
+      <c r="E36" s="4">
+        <v>25.64</v>
       </c>
       <c r="F36" s="4">
         <v>125</v>
@@ -2246,8 +2240,8 @@
       <c r="G36" s="3">
         <v>1113</v>
       </c>
-      <c r="H36" s="5">
-        <v>0.28889999999999999</v>
+      <c r="H36" s="4">
+        <v>28.89</v>
       </c>
       <c r="I36" s="3">
         <v>55139</v>
@@ -2255,7 +2249,7 @@
     </row>
     <row r="37" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3">
         <v>30709</v>
@@ -2266,8 +2260,8 @@
       <c r="D37" s="3">
         <v>18207</v>
       </c>
-      <c r="E37" s="5">
-        <v>0.59289999999999998</v>
+      <c r="E37" s="4">
+        <v>59.29</v>
       </c>
       <c r="F37" s="4">
         <v>726</v>
@@ -2275,8 +2269,8 @@
       <c r="G37" s="3">
         <v>18933</v>
       </c>
-      <c r="H37" s="5">
-        <v>0.61650000000000005</v>
+      <c r="H37" s="4">
+        <v>61.65</v>
       </c>
       <c r="I37" s="3">
         <v>89991</v>
@@ -2284,7 +2278,7 @@
     </row>
     <row r="38" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="3">
         <v>29166</v>
@@ -2295,8 +2289,8 @@
       <c r="D38" s="3">
         <v>13857</v>
       </c>
-      <c r="E38" s="5">
-        <v>0.47510000000000002</v>
+      <c r="E38" s="4">
+        <v>47.51</v>
       </c>
       <c r="F38" s="3">
         <v>1593</v>
@@ -2304,8 +2298,8 @@
       <c r="G38" s="3">
         <v>15450</v>
       </c>
-      <c r="H38" s="5">
-        <v>0.52969999999999995</v>
+      <c r="H38" s="4">
+        <v>52.97</v>
       </c>
       <c r="I38" s="3">
         <v>45894</v>
@@ -2313,7 +2307,7 @@
     </row>
     <row r="39" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B39" s="3">
         <v>3658</v>
@@ -2324,8 +2318,8 @@
       <c r="D39" s="3">
         <v>1629</v>
       </c>
-      <c r="E39" s="5">
-        <v>0.44529999999999997</v>
+      <c r="E39" s="4">
+        <v>44.53</v>
       </c>
       <c r="F39" s="4">
         <v>152</v>
@@ -2333,8 +2327,8 @@
       <c r="G39" s="3">
         <v>1781</v>
       </c>
-      <c r="H39" s="5">
-        <v>0.4869</v>
+      <c r="H39" s="4">
+        <v>48.69</v>
       </c>
       <c r="I39" s="3">
         <v>45473</v>
@@ -2342,7 +2336,7 @@
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B40" s="3">
         <v>7959</v>
@@ -2353,8 +2347,8 @@
       <c r="D40" s="3">
         <v>3818</v>
       </c>
-      <c r="E40" s="5">
-        <v>0.47970000000000002</v>
+      <c r="E40" s="4">
+        <v>47.97</v>
       </c>
       <c r="F40" s="4">
         <v>308</v>
@@ -2362,8 +2356,8 @@
       <c r="G40" s="3">
         <v>4126</v>
       </c>
-      <c r="H40" s="5">
-        <v>0.51839999999999997</v>
+      <c r="H40" s="4">
+        <v>51.84</v>
       </c>
       <c r="I40" s="3">
         <v>62763</v>
@@ -2371,7 +2365,7 @@
     </row>
     <row r="41" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B41" s="3">
         <v>1771</v>
@@ -2382,8 +2376,8 @@
       <c r="D41" s="4">
         <v>529</v>
       </c>
-      <c r="E41" s="5">
-        <v>0.29870000000000002</v>
+      <c r="E41" s="4">
+        <v>29.87</v>
       </c>
       <c r="F41" s="4">
         <v>66</v>
@@ -2391,8 +2385,8 @@
       <c r="G41" s="4">
         <v>595</v>
       </c>
-      <c r="H41" s="5">
-        <v>0.33600000000000002</v>
+      <c r="H41" s="4">
+        <v>33.6</v>
       </c>
       <c r="I41" s="3">
         <v>44584</v>
@@ -2400,7 +2394,7 @@
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B42" s="3">
         <v>2414</v>
@@ -2411,8 +2405,8 @@
       <c r="D42" s="4">
         <v>952</v>
       </c>
-      <c r="E42" s="5">
-        <v>0.39439999999999997</v>
+      <c r="E42" s="4">
+        <v>39.44</v>
       </c>
       <c r="F42" s="4">
         <v>244</v>
@@ -2420,8 +2414,8 @@
       <c r="G42" s="3">
         <v>1196</v>
       </c>
-      <c r="H42" s="5">
-        <v>0.49540000000000001</v>
+      <c r="H42" s="4">
+        <v>49.54</v>
       </c>
       <c r="I42" s="3">
         <v>51050</v>
@@ -2429,7 +2423,7 @@
     </row>
     <row r="43" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B43" s="3">
         <v>5960</v>
@@ -2440,8 +2434,8 @@
       <c r="D43" s="3">
         <v>3114</v>
       </c>
-      <c r="E43" s="5">
-        <v>0.52249999999999996</v>
+      <c r="E43" s="4">
+        <v>52.25</v>
       </c>
       <c r="F43" s="4">
         <v>420</v>
@@ -2449,8 +2443,8 @@
       <c r="G43" s="3">
         <v>3534</v>
       </c>
-      <c r="H43" s="5">
-        <v>0.59299999999999997</v>
+      <c r="H43" s="4">
+        <v>59.3</v>
       </c>
       <c r="I43" s="3">
         <v>43623</v>
@@ -2458,7 +2452,7 @@
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="3">
         <v>648670</v>
@@ -2469,8 +2463,8 @@
       <c r="D44" s="3">
         <v>422090</v>
       </c>
-      <c r="E44" s="5">
-        <v>0.65069999999999995</v>
+      <c r="E44" s="4">
+        <v>65.069999999999993</v>
       </c>
       <c r="F44" s="3">
         <v>29016</v>
@@ -2478,8 +2472,8 @@
       <c r="G44" s="3">
         <v>451106</v>
       </c>
-      <c r="H44" s="5">
-        <v>0.69540000000000002</v>
+      <c r="H44" s="4">
+        <v>69.540000000000006</v>
       </c>
       <c r="I44" s="3">
         <v>101560</v>
@@ -2487,7 +2481,7 @@
     </row>
     <row r="45" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B45" s="3">
         <v>1942</v>
@@ -2498,8 +2492,8 @@
       <c r="D45" s="4">
         <v>758</v>
       </c>
-      <c r="E45" s="5">
-        <v>0.39029999999999998</v>
+      <c r="E45" s="4">
+        <v>39.03</v>
       </c>
       <c r="F45" s="4">
         <v>89</v>
@@ -2507,8 +2501,8 @@
       <c r="G45" s="4">
         <v>847</v>
       </c>
-      <c r="H45" s="5">
-        <v>0.43609999999999999</v>
+      <c r="H45" s="4">
+        <v>43.61</v>
       </c>
       <c r="I45" s="3">
         <v>47885</v>
@@ -2516,7 +2510,7 @@
     </row>
     <row r="46" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3">
         <v>14378</v>
@@ -2527,8 +2521,8 @@
       <c r="D46" s="3">
         <v>7003</v>
       </c>
-      <c r="E46" s="5">
-        <v>0.48709999999999998</v>
+      <c r="E46" s="4">
+        <v>48.71</v>
       </c>
       <c r="F46" s="4">
         <v>994</v>
@@ -2536,8 +2530,8 @@
       <c r="G46" s="3">
         <v>7997</v>
       </c>
-      <c r="H46" s="5">
-        <v>0.55620000000000003</v>
+      <c r="H46" s="4">
+        <v>55.62</v>
       </c>
       <c r="I46" s="3">
         <v>52726</v>
@@ -2545,7 +2539,7 @@
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="3">
         <v>115876</v>
@@ -2556,8 +2550,8 @@
       <c r="D47" s="3">
         <v>70583</v>
       </c>
-      <c r="E47" s="5">
-        <v>0.60909999999999997</v>
+      <c r="E47" s="4">
+        <v>60.91</v>
       </c>
       <c r="F47" s="4">
         <v>2</v>
@@ -2565,8 +2559,8 @@
       <c r="G47" s="3">
         <v>70585</v>
       </c>
-      <c r="H47" s="5">
-        <v>0.60909999999999997</v>
+      <c r="H47" s="4">
+        <v>60.91</v>
       </c>
       <c r="I47" s="3">
         <v>79290</v>
@@ -2574,7 +2568,7 @@
     </row>
     <row r="48" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" s="3">
         <v>9562</v>
@@ -2585,8 +2579,8 @@
       <c r="D48" s="3">
         <v>4086</v>
       </c>
-      <c r="E48" s="5">
-        <v>0.42730000000000001</v>
+      <c r="E48" s="4">
+        <v>42.73</v>
       </c>
       <c r="F48" s="4">
         <v>573</v>
@@ -2594,8 +2588,8 @@
       <c r="G48" s="3">
         <v>4659</v>
       </c>
-      <c r="H48" s="5">
-        <v>0.48720000000000002</v>
+      <c r="H48" s="4">
+        <v>48.72</v>
       </c>
       <c r="I48" s="3">
         <v>47282</v>
@@ -2603,7 +2597,7 @@
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B49" s="3">
         <v>1757</v>
@@ -2614,8 +2608,8 @@
       <c r="D49" s="4">
         <v>632</v>
       </c>
-      <c r="E49" s="5">
-        <v>0.35970000000000002</v>
+      <c r="E49" s="4">
+        <v>35.97</v>
       </c>
       <c r="F49" s="4">
         <v>146</v>
@@ -2623,8 +2617,8 @@
       <c r="G49" s="4">
         <v>778</v>
       </c>
-      <c r="H49" s="5">
-        <v>0.44280000000000003</v>
+      <c r="H49" s="4">
+        <v>44.28</v>
       </c>
       <c r="I49" s="3">
         <v>47412</v>
@@ -2632,7 +2626,7 @@
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="3">
         <v>27268</v>
@@ -2643,8 +2637,8 @@
       <c r="D50" s="3">
         <v>12383</v>
       </c>
-      <c r="E50" s="5">
-        <v>0.4541</v>
+      <c r="E50" s="4">
+        <v>45.41</v>
       </c>
       <c r="F50" s="3">
         <v>1212</v>
@@ -2652,8 +2646,8 @@
       <c r="G50" s="3">
         <v>13595</v>
       </c>
-      <c r="H50" s="5">
-        <v>0.49859999999999999</v>
+      <c r="H50" s="4">
+        <v>49.86</v>
       </c>
       <c r="I50" s="3">
         <v>66323</v>
@@ -2661,7 +2655,7 @@
     </row>
     <row r="51" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3">
         <v>41450</v>
@@ -2672,8 +2666,8 @@
       <c r="D51" s="3">
         <v>16857</v>
       </c>
-      <c r="E51" s="5">
-        <v>0.40670000000000001</v>
+      <c r="E51" s="4">
+        <v>40.67</v>
       </c>
       <c r="F51" s="3">
         <v>2299</v>
@@ -2681,8 +2675,8 @@
       <c r="G51" s="3">
         <v>19156</v>
       </c>
-      <c r="H51" s="5">
-        <v>0.46210000000000001</v>
+      <c r="H51" s="4">
+        <v>46.21</v>
       </c>
       <c r="I51" s="3">
         <v>58398</v>
@@ -2690,7 +2684,7 @@
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B52" s="3">
         <v>1041</v>
@@ -2701,8 +2695,8 @@
       <c r="D52" s="4">
         <v>402</v>
       </c>
-      <c r="E52" s="5">
-        <v>0.38619999999999999</v>
+      <c r="E52" s="4">
+        <v>38.619999999999997</v>
       </c>
       <c r="F52" s="4">
         <v>74</v>
@@ -2710,8 +2704,8 @@
       <c r="G52" s="4">
         <v>476</v>
       </c>
-      <c r="H52" s="5">
-        <v>0.45729999999999998</v>
+      <c r="H52" s="4">
+        <v>45.73</v>
       </c>
       <c r="I52" s="3">
         <v>44430</v>
@@ -2719,7 +2713,7 @@
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" s="3">
         <v>2663</v>
@@ -2730,8 +2724,8 @@
       <c r="D53" s="3">
         <v>1000</v>
       </c>
-      <c r="E53" s="5">
-        <v>0.3755</v>
+      <c r="E53" s="4">
+        <v>37.549999999999997</v>
       </c>
       <c r="F53" s="4">
         <v>72</v>
@@ -2739,8 +2733,8 @@
       <c r="G53" s="3">
         <v>1072</v>
       </c>
-      <c r="H53" s="5">
-        <v>0.40260000000000001</v>
+      <c r="H53" s="4">
+        <v>40.26</v>
       </c>
       <c r="I53" s="3">
         <v>67547</v>
@@ -2748,7 +2742,7 @@
     </row>
     <row r="54" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B54" s="3">
         <v>2473</v>
@@ -2759,8 +2753,8 @@
       <c r="D54" s="3">
         <v>1139</v>
       </c>
-      <c r="E54" s="5">
-        <v>0.46060000000000001</v>
+      <c r="E54" s="4">
+        <v>46.06</v>
       </c>
       <c r="F54" s="4">
         <v>78</v>
@@ -2768,8 +2762,8 @@
       <c r="G54" s="3">
         <v>1217</v>
       </c>
-      <c r="H54" s="5">
-        <v>0.49209999999999998</v>
+      <c r="H54" s="4">
+        <v>49.21</v>
       </c>
       <c r="I54" s="3">
         <v>54458</v>
@@ -2777,7 +2771,7 @@
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B55" s="3">
         <v>3629</v>
@@ -2788,8 +2782,8 @@
       <c r="D55" s="4">
         <v>980</v>
       </c>
-      <c r="E55" s="5">
-        <v>0.27</v>
+      <c r="E55" s="4">
+        <v>27</v>
       </c>
       <c r="F55" s="4">
         <v>234</v>
@@ -2797,8 +2791,8 @@
       <c r="G55" s="3">
         <v>1214</v>
       </c>
-      <c r="H55" s="5">
-        <v>0.33450000000000002</v>
+      <c r="H55" s="4">
+        <v>33.450000000000003</v>
       </c>
       <c r="I55" s="3">
         <v>42804</v>
@@ -2806,7 +2800,7 @@
     </row>
     <row r="56" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B56" s="3">
         <v>1709</v>
@@ -2817,8 +2811,8 @@
       <c r="D56" s="4">
         <v>503</v>
       </c>
-      <c r="E56" s="5">
-        <v>0.29430000000000001</v>
+      <c r="E56" s="4">
+        <v>29.43</v>
       </c>
       <c r="F56" s="4">
         <v>61</v>
@@ -2826,8 +2820,8 @@
       <c r="G56" s="4">
         <v>564</v>
       </c>
-      <c r="H56" s="5">
-        <v>0.33</v>
+      <c r="H56" s="4">
+        <v>33</v>
       </c>
       <c r="I56" s="3">
         <v>47479</v>
@@ -2835,7 +2829,7 @@
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B57" s="3">
         <v>3046</v>
@@ -2846,8 +2840,8 @@
       <c r="D57" s="4">
         <v>889</v>
       </c>
-      <c r="E57" s="5">
-        <v>0.29189999999999999</v>
+      <c r="E57" s="4">
+        <v>29.19</v>
       </c>
       <c r="F57" s="4">
         <v>135</v>
@@ -2855,8 +2849,8 @@
       <c r="G57" s="3">
         <v>1024</v>
       </c>
-      <c r="H57" s="5">
-        <v>0.3362</v>
+      <c r="H57" s="4">
+        <v>33.619999999999997</v>
       </c>
       <c r="I57" s="3">
         <v>55253</v>
@@ -2864,7 +2858,7 @@
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="3">
         <v>1398469</v>
@@ -2875,8 +2869,8 @@
       <c r="D58" s="3">
         <v>730663</v>
       </c>
-      <c r="E58" s="5">
-        <v>0.52249999999999996</v>
+      <c r="E58" s="4">
+        <v>52.25</v>
       </c>
       <c r="F58" s="3">
         <v>49793</v>
@@ -2884,8 +2878,8 @@
       <c r="G58" s="3">
         <v>780456</v>
       </c>
-      <c r="H58" s="5">
-        <v>0.55810000000000004</v>
+      <c r="H58" s="4">
+        <v>55.81</v>
       </c>
       <c r="I58" s="3">
         <v>65770</v>
@@ -2893,7 +2887,7 @@
     </row>
     <row r="59" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B59" s="3">
         <v>7104</v>
@@ -2904,8 +2898,8 @@
       <c r="D59" s="3">
         <v>2546</v>
       </c>
-      <c r="E59" s="5">
-        <v>0.3584</v>
+      <c r="E59" s="4">
+        <v>35.840000000000003</v>
       </c>
       <c r="F59" s="4">
         <v>382</v>
@@ -2913,16 +2907,16 @@
       <c r="G59" s="3">
         <v>2928</v>
       </c>
-      <c r="H59" s="5">
-        <v>0.41220000000000001</v>
+      <c r="H59" s="4">
+        <v>41.22</v>
       </c>
       <c r="I59" s="3">
         <v>47233</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>149</v>
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>45.05</v>
       </c>
       <c r="B60" s="3">
         <v>8900</v>
@@ -2933,8 +2927,8 @@
       <c r="D60" s="3">
         <v>3128</v>
       </c>
-      <c r="E60" s="5">
-        <v>0.35149999999999998</v>
+      <c r="E60" s="4">
+        <v>35.15</v>
       </c>
       <c r="F60" s="4">
         <v>504</v>
@@ -2942,8 +2936,8 @@
       <c r="G60" s="3">
         <v>3632</v>
       </c>
-      <c r="H60" s="5">
-        <v>0.40810000000000002</v>
+      <c r="H60" s="4">
+        <v>40.81</v>
       </c>
       <c r="I60" s="3">
         <v>51412</v>
@@ -2951,7 +2945,7 @@
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B61" s="3">
         <v>3949</v>
@@ -2962,8 +2956,8 @@
       <c r="D61" s="3">
         <v>1579</v>
       </c>
-      <c r="E61" s="5">
-        <v>0.39979999999999999</v>
+      <c r="E61" s="4">
+        <v>39.979999999999997</v>
       </c>
       <c r="F61" s="4">
         <v>222</v>
@@ -2971,8 +2965,8 @@
       <c r="G61" s="3">
         <v>1801</v>
       </c>
-      <c r="H61" s="5">
-        <v>0.45610000000000001</v>
+      <c r="H61" s="4">
+        <v>45.61</v>
       </c>
       <c r="I61" s="3">
         <v>50456</v>
@@ -2980,7 +2974,7 @@
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62" s="3">
         <v>565089</v>
@@ -2991,8 +2985,8 @@
       <c r="D62" s="3">
         <v>356329</v>
       </c>
-      <c r="E62" s="5">
-        <v>0.63060000000000005</v>
+      <c r="E62" s="4">
+        <v>63.06</v>
       </c>
       <c r="F62" s="3">
         <v>27734</v>
@@ -3000,8 +2994,8 @@
       <c r="G62" s="3">
         <v>384063</v>
       </c>
-      <c r="H62" s="5">
-        <v>0.67969999999999997</v>
+      <c r="H62" s="4">
+        <v>67.97</v>
       </c>
       <c r="I62" s="3">
         <v>90880</v>
@@ -3009,7 +3003,7 @@
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="3">
         <v>12094</v>
@@ -3020,8 +3014,8 @@
       <c r="D63" s="3">
         <v>5402</v>
       </c>
-      <c r="E63" s="5">
-        <v>0.44669999999999999</v>
+      <c r="E63" s="4">
+        <v>44.67</v>
       </c>
       <c r="F63" s="4">
         <v>783</v>
@@ -3029,8 +3023,8 @@
       <c r="G63" s="3">
         <v>6185</v>
       </c>
-      <c r="H63" s="5">
-        <v>0.51139999999999997</v>
+      <c r="H63" s="4">
+        <v>51.14</v>
       </c>
       <c r="I63" s="3">
         <v>53899</v>
@@ -3038,7 +3032,7 @@
     </row>
     <row r="64" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B64" s="3">
         <v>1328</v>
@@ -3049,8 +3043,8 @@
       <c r="D64" s="4">
         <v>551</v>
       </c>
-      <c r="E64" s="5">
-        <v>0.41489999999999999</v>
+      <c r="E64" s="4">
+        <v>41.49</v>
       </c>
       <c r="F64" s="4">
         <v>122</v>
@@ -3058,8 +3052,8 @@
       <c r="G64" s="4">
         <v>673</v>
       </c>
-      <c r="H64" s="5">
-        <v>0.50680000000000003</v>
+      <c r="H64" s="4">
+        <v>50.68</v>
       </c>
       <c r="I64" s="3">
         <v>42034</v>
@@ -3067,7 +3061,7 @@
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B65" s="3">
         <v>7341</v>
@@ -3078,8 +3072,8 @@
       <c r="D65" s="3">
         <v>1976</v>
       </c>
-      <c r="E65" s="5">
-        <v>0.26919999999999999</v>
+      <c r="E65" s="4">
+        <v>26.92</v>
       </c>
       <c r="F65" s="4">
         <v>470</v>
@@ -3087,8 +3081,8 @@
       <c r="G65" s="3">
         <v>2446</v>
       </c>
-      <c r="H65" s="5">
-        <v>0.3332</v>
+      <c r="H65" s="4">
+        <v>33.32</v>
       </c>
       <c r="I65" s="3">
         <v>42788</v>
@@ -3096,7 +3090,7 @@
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B66" s="3">
         <v>2322</v>
@@ -3107,8 +3101,8 @@
       <c r="D66" s="3">
         <v>1068</v>
       </c>
-      <c r="E66" s="5">
-        <v>0.45989999999999998</v>
+      <c r="E66" s="4">
+        <v>45.99</v>
       </c>
       <c r="F66" s="4">
         <v>86</v>
@@ -3116,8 +3110,8 @@
       <c r="G66" s="3">
         <v>1154</v>
       </c>
-      <c r="H66" s="5">
-        <v>0.497</v>
+      <c r="H66" s="4">
+        <v>49.7</v>
       </c>
       <c r="I66" s="3">
         <v>57526</v>
@@ -3125,7 +3119,7 @@
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B67" s="3">
         <v>8346</v>
@@ -3136,8 +3130,8 @@
       <c r="D67" s="3">
         <v>3116</v>
       </c>
-      <c r="E67" s="5">
-        <v>0.37340000000000001</v>
+      <c r="E67" s="4">
+        <v>37.340000000000003</v>
       </c>
       <c r="F67" s="4">
         <v>979</v>
@@ -3145,8 +3139,8 @@
       <c r="G67" s="3">
         <v>4095</v>
       </c>
-      <c r="H67" s="5">
-        <v>0.49070000000000003</v>
+      <c r="H67" s="4">
+        <v>49.07</v>
       </c>
       <c r="I67" s="3">
         <v>40601</v>
@@ -3154,7 +3148,7 @@
     </row>
     <row r="68" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="3">
         <v>12230</v>
@@ -3165,8 +3159,8 @@
       <c r="D68" s="3">
         <v>5558</v>
       </c>
-      <c r="E68" s="5">
-        <v>0.45450000000000002</v>
+      <c r="E68" s="4">
+        <v>45.45</v>
       </c>
       <c r="F68" s="4">
         <v>935</v>
@@ -3174,8 +3168,8 @@
       <c r="G68" s="3">
         <v>6493</v>
       </c>
-      <c r="H68" s="5">
-        <v>0.53090000000000004</v>
+      <c r="H68" s="4">
+        <v>53.09</v>
       </c>
       <c r="I68" s="3">
         <v>50317</v>
@@ -3183,7 +3177,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" s="3">
         <v>80872</v>
@@ -3194,8 +3188,8 @@
       <c r="D69" s="3">
         <v>32977</v>
       </c>
-      <c r="E69" s="5">
-        <v>0.4078</v>
+      <c r="E69" s="4">
+        <v>40.78</v>
       </c>
       <c r="F69" s="3">
         <v>2540</v>
@@ -3203,8 +3197,8 @@
       <c r="G69" s="3">
         <v>35517</v>
       </c>
-      <c r="H69" s="5">
-        <v>0.43919999999999998</v>
+      <c r="H69" s="4">
+        <v>43.92</v>
       </c>
       <c r="I69" s="3">
         <v>62669</v>
@@ -3212,7 +3206,7 @@
     </row>
     <row r="70" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" s="3">
         <v>1499</v>
@@ -3223,8 +3217,8 @@
       <c r="D70" s="4">
         <v>688</v>
       </c>
-      <c r="E70" s="5">
-        <v>0.45900000000000002</v>
+      <c r="E70" s="4">
+        <v>45.9</v>
       </c>
       <c r="F70" s="4">
         <v>81</v>
@@ -3232,8 +3226,8 @@
       <c r="G70" s="4">
         <v>769</v>
       </c>
-      <c r="H70" s="5">
-        <v>0.51300000000000001</v>
+      <c r="H70" s="4">
+        <v>51.3</v>
       </c>
       <c r="I70" s="3">
         <v>45330</v>
@@ -3241,7 +3235,7 @@
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" s="3">
         <v>488470</v>
@@ -3252,8 +3246,8 @@
       <c r="D71" s="3">
         <v>194917</v>
       </c>
-      <c r="E71" s="5">
-        <v>0.39900000000000002</v>
+      <c r="E71" s="4">
+        <v>39.9</v>
       </c>
       <c r="F71" s="3">
         <v>26806</v>
@@ -3261,8 +3255,8 @@
       <c r="G71" s="3">
         <v>221723</v>
       </c>
-      <c r="H71" s="5">
-        <v>0.45390000000000003</v>
+      <c r="H71" s="4">
+        <v>45.39</v>
       </c>
       <c r="I71" s="3">
         <v>48522</v>
@@ -3270,7 +3264,7 @@
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="3">
         <v>120188</v>
@@ -3281,8 +3275,8 @@
       <c r="D72" s="3">
         <v>70161</v>
       </c>
-      <c r="E72" s="5">
-        <v>0.58379999999999999</v>
+      <c r="E72" s="4">
+        <v>58.38</v>
       </c>
       <c r="F72" s="3">
         <v>4968</v>
@@ -3290,8 +3284,8 @@
       <c r="G72" s="3">
         <v>75129</v>
       </c>
-      <c r="H72" s="5">
-        <v>0.62509999999999999</v>
+      <c r="H72" s="4">
+        <v>62.51</v>
       </c>
       <c r="I72" s="3">
         <v>79849</v>
@@ -3299,7 +3293,7 @@
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" s="3">
         <v>23935</v>
@@ -3310,8 +3304,8 @@
       <c r="D73" s="3">
         <v>12228</v>
       </c>
-      <c r="E73" s="5">
-        <v>0.51090000000000002</v>
+      <c r="E73" s="4">
+        <v>51.09</v>
       </c>
       <c r="F73" s="3">
         <v>1176</v>
@@ -3319,8 +3313,8 @@
       <c r="G73" s="3">
         <v>13404</v>
       </c>
-      <c r="H73" s="5">
-        <v>0.56000000000000005</v>
+      <c r="H73" s="4">
+        <v>56</v>
       </c>
       <c r="I73" s="3">
         <v>61453</v>
@@ -3328,7 +3322,7 @@
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B74" s="3">
         <v>10361</v>
@@ -3339,8 +3333,8 @@
       <c r="D74" s="3">
         <v>3004</v>
       </c>
-      <c r="E74" s="5">
-        <v>0.28989999999999999</v>
+      <c r="E74" s="4">
+        <v>28.99</v>
       </c>
       <c r="F74" s="4">
         <v>601</v>
@@ -3348,8 +3342,8 @@
       <c r="G74" s="3">
         <v>3605</v>
       </c>
-      <c r="H74" s="5">
-        <v>0.34789999999999999</v>
+      <c r="H74" s="4">
+        <v>34.79</v>
       </c>
       <c r="I74" s="3">
         <v>44590</v>
@@ -3357,7 +3351,7 @@
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="3">
         <v>22199</v>
@@ -3368,8 +3362,8 @@
       <c r="D75" s="3">
         <v>9561</v>
       </c>
-      <c r="E75" s="5">
-        <v>0.43070000000000003</v>
+      <c r="E75" s="4">
+        <v>43.07</v>
       </c>
       <c r="F75" s="3">
         <v>1336</v>
@@ -3377,8 +3371,8 @@
       <c r="G75" s="3">
         <v>10897</v>
       </c>
-      <c r="H75" s="5">
-        <v>0.4909</v>
+      <c r="H75" s="4">
+        <v>49.09</v>
       </c>
       <c r="I75" s="3">
         <v>59746</v>
@@ -3386,7 +3380,7 @@
     </row>
     <row r="76" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="3">
         <v>17398</v>
@@ -3397,8 +3391,8 @@
       <c r="D76" s="3">
         <v>8090</v>
       </c>
-      <c r="E76" s="5">
-        <v>0.46500000000000002</v>
+      <c r="E76" s="4">
+        <v>46.5</v>
       </c>
       <c r="F76" s="3">
         <v>1370</v>
@@ -3406,8 +3400,8 @@
       <c r="G76" s="3">
         <v>9460</v>
       </c>
-      <c r="H76" s="5">
-        <v>0.54369999999999996</v>
+      <c r="H76" s="4">
+        <v>54.37</v>
       </c>
       <c r="I76" s="3">
         <v>63713</v>
@@ -3415,7 +3409,7 @@
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B77" s="3">
         <v>2646</v>
@@ -3426,8 +3420,8 @@
       <c r="D77" s="3">
         <v>1129</v>
       </c>
-      <c r="E77" s="5">
-        <v>0.42670000000000002</v>
+      <c r="E77" s="4">
+        <v>42.67</v>
       </c>
       <c r="F77" s="4">
         <v>182</v>
@@ -3435,8 +3429,8 @@
       <c r="G77" s="3">
         <v>1311</v>
       </c>
-      <c r="H77" s="5">
-        <v>0.4955</v>
+      <c r="H77" s="4">
+        <v>49.55</v>
       </c>
       <c r="I77" s="3">
         <v>52828</v>
@@ -3444,7 +3438,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B78" s="3">
         <v>3850</v>
@@ -3455,8 +3449,8 @@
       <c r="D78" s="3">
         <v>1479</v>
       </c>
-      <c r="E78" s="5">
-        <v>0.38419999999999999</v>
+      <c r="E78" s="4">
+        <v>38.42</v>
       </c>
       <c r="F78" s="4">
         <v>189</v>
@@ -3464,8 +3458,8 @@
       <c r="G78" s="3">
         <v>1668</v>
       </c>
-      <c r="H78" s="5">
-        <v>0.43319999999999997</v>
+      <c r="H78" s="4">
+        <v>43.32</v>
       </c>
       <c r="I78" s="3">
         <v>44256</v>
@@ -3473,7 +3467,7 @@
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B79" s="4">
         <v>884</v>
@@ -3484,8 +3478,8 @@
       <c r="D79" s="4">
         <v>394</v>
       </c>
-      <c r="E79" s="5">
-        <v>0.44569999999999999</v>
+      <c r="E79" s="4">
+        <v>44.57</v>
       </c>
       <c r="F79" s="4">
         <v>19</v>
@@ -3493,8 +3487,8 @@
       <c r="G79" s="4">
         <v>413</v>
       </c>
-      <c r="H79" s="5">
-        <v>0.4672</v>
+      <c r="H79" s="4">
+        <v>46.72</v>
       </c>
       <c r="I79" s="3">
         <v>40955</v>
@@ -3502,7 +3496,7 @@
     </row>
     <row r="80" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3">
         <v>482368</v>
@@ -3513,8 +3507,8 @@
       <c r="D80" s="3">
         <v>301119</v>
       </c>
-      <c r="E80" s="5">
-        <v>0.62429999999999997</v>
+      <c r="E80" s="4">
+        <v>62.43</v>
       </c>
       <c r="F80" s="3">
         <v>28212</v>
@@ -3522,8 +3516,8 @@
       <c r="G80" s="3">
         <v>329331</v>
       </c>
-      <c r="H80" s="5">
-        <v>0.68269999999999997</v>
+      <c r="H80" s="4">
+        <v>68.27</v>
       </c>
       <c r="I80" s="3">
         <v>97210</v>
@@ -3531,7 +3525,7 @@
     </row>
     <row r="81" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B81" s="3">
         <v>7061</v>
@@ -3542,8 +3536,8 @@
       <c r="D81" s="3">
         <v>3564</v>
       </c>
-      <c r="E81" s="5">
-        <v>0.50470000000000004</v>
+      <c r="E81" s="4">
+        <v>50.47</v>
       </c>
       <c r="F81" s="4">
         <v>326</v>
@@ -3551,8 +3545,8 @@
       <c r="G81" s="3">
         <v>3890</v>
       </c>
-      <c r="H81" s="5">
-        <v>0.55089999999999995</v>
+      <c r="H81" s="4">
+        <v>55.09</v>
       </c>
       <c r="I81" s="3">
         <v>58927</v>
@@ -3560,7 +3554,7 @@
     </row>
     <row r="82" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="3">
         <v>12481</v>
@@ -3571,8 +3565,8 @@
       <c r="D82" s="3">
         <v>5910</v>
       </c>
-      <c r="E82" s="5">
-        <v>0.47349999999999998</v>
+      <c r="E82" s="4">
+        <v>47.35</v>
       </c>
       <c r="F82" s="4">
         <v>596</v>
@@ -3580,8 +3574,8 @@
       <c r="G82" s="3">
         <v>6506</v>
       </c>
-      <c r="H82" s="5">
-        <v>0.52129999999999999</v>
+      <c r="H82" s="4">
+        <v>52.13</v>
       </c>
       <c r="I82" s="3">
         <v>54502</v>
@@ -3589,7 +3583,7 @@
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B83" s="3">
         <v>8984</v>
@@ -3600,8 +3594,8 @@
       <c r="D83" s="3">
         <v>3014</v>
       </c>
-      <c r="E83" s="5">
-        <v>0.33550000000000002</v>
+      <c r="E83" s="4">
+        <v>33.549999999999997</v>
       </c>
       <c r="F83" s="4">
         <v>730</v>
@@ -3609,8 +3603,8 @@
       <c r="G83" s="3">
         <v>3744</v>
       </c>
-      <c r="H83" s="5">
-        <v>0.41670000000000001</v>
+      <c r="H83" s="4">
+        <v>41.67</v>
       </c>
       <c r="I83" s="3">
         <v>47007</v>
@@ -3618,7 +3612,7 @@
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B84" s="3">
         <v>9701</v>
@@ -3629,8 +3623,8 @@
       <c r="D84" s="3">
         <v>4993</v>
       </c>
-      <c r="E84" s="5">
-        <v>0.51470000000000005</v>
+      <c r="E84" s="4">
+        <v>51.47</v>
       </c>
       <c r="F84" s="4">
         <v>207</v>
@@ -3638,8 +3632,8 @@
       <c r="G84" s="3">
         <v>5200</v>
       </c>
-      <c r="H84" s="5">
-        <v>0.53600000000000003</v>
+      <c r="H84" s="4">
+        <v>53.6</v>
       </c>
       <c r="I84" s="3">
         <v>63528</v>
@@ -3647,7 +3641,7 @@
     </row>
     <row r="85" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B85" s="3">
         <v>228482</v>
@@ -3658,8 +3652,8 @@
       <c r="D85" s="3">
         <v>124509</v>
       </c>
-      <c r="E85" s="5">
-        <v>0.54490000000000005</v>
+      <c r="E85" s="4">
+        <v>54.49</v>
       </c>
       <c r="F85" s="3">
         <v>13023</v>
@@ -3667,8 +3661,8 @@
       <c r="G85" s="3">
         <v>137532</v>
       </c>
-      <c r="H85" s="5">
-        <v>0.60189999999999999</v>
+      <c r="H85" s="4">
+        <v>60.19</v>
       </c>
       <c r="I85" s="3">
         <v>78465</v>
@@ -3676,7 +3670,7 @@
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B86" s="3">
         <v>2681</v>
@@ -3687,8 +3681,8 @@
       <c r="D86" s="3">
         <v>1126</v>
       </c>
-      <c r="E86" s="5">
-        <v>0.42</v>
+      <c r="E86" s="4">
+        <v>42</v>
       </c>
       <c r="F86" s="4">
         <v>112</v>
@@ -3696,8 +3690,8 @@
       <c r="G86" s="3">
         <v>1238</v>
       </c>
-      <c r="H86" s="5">
-        <v>0.46179999999999999</v>
+      <c r="H86" s="4">
+        <v>46.18</v>
       </c>
       <c r="I86" s="3">
         <v>50934</v>
@@ -3705,7 +3699,7 @@
     </row>
     <row r="87" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="3">
         <v>20404</v>
@@ -3716,8 +3710,8 @@
       <c r="D87" s="3">
         <v>10551</v>
       </c>
-      <c r="E87" s="5">
-        <v>0.5171</v>
+      <c r="E87" s="4">
+        <v>51.71</v>
       </c>
       <c r="F87" s="3">
         <v>2061</v>
@@ -3725,8 +3719,8 @@
       <c r="G87" s="3">
         <v>12612</v>
       </c>
-      <c r="H87" s="5">
-        <v>0.61809999999999998</v>
+      <c r="H87" s="4">
+        <v>61.81</v>
       </c>
       <c r="I87" s="3">
         <v>64365</v>
@@ -3734,7 +3728,7 @@
     </row>
     <row r="88" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B88" s="4">
         <v>800</v>
@@ -3745,8 +3739,8 @@
       <c r="D88" s="4">
         <v>447</v>
       </c>
-      <c r="E88" s="5">
-        <v>0.55879999999999996</v>
+      <c r="E88" s="4">
+        <v>55.88</v>
       </c>
       <c r="F88" s="4">
         <v>46</v>
@@ -3754,8 +3748,8 @@
       <c r="G88" s="4">
         <v>493</v>
       </c>
-      <c r="H88" s="5">
-        <v>0.61629999999999996</v>
+      <c r="H88" s="4">
+        <v>61.63</v>
       </c>
       <c r="I88" s="3">
         <v>85001</v>
@@ -3763,7 +3757,7 @@
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B89" s="3">
         <v>5766</v>
@@ -3774,8 +3768,8 @@
       <c r="D89" s="3">
         <v>2496</v>
       </c>
-      <c r="E89" s="5">
-        <v>0.43290000000000001</v>
+      <c r="E89" s="4">
+        <v>43.29</v>
       </c>
       <c r="F89" s="4">
         <v>282</v>
@@ -3783,8 +3777,8 @@
       <c r="G89" s="3">
         <v>2778</v>
       </c>
-      <c r="H89" s="5">
-        <v>0.48180000000000001</v>
+      <c r="H89" s="4">
+        <v>48.18</v>
       </c>
       <c r="I89" s="3">
         <v>54970</v>
@@ -3792,7 +3786,7 @@
     </row>
     <row r="90" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" s="3">
         <v>12629</v>
@@ -3803,8 +3797,8 @@
       <c r="D90" s="3">
         <v>5436</v>
       </c>
-      <c r="E90" s="5">
-        <v>0.4304</v>
+      <c r="E90" s="4">
+        <v>43.04</v>
       </c>
       <c r="F90" s="4">
         <v>680</v>
@@ -3812,8 +3806,8 @@
       <c r="G90" s="3">
         <v>6116</v>
       </c>
-      <c r="H90" s="5">
-        <v>0.48430000000000001</v>
+      <c r="H90" s="4">
+        <v>48.43</v>
       </c>
       <c r="I90" s="3">
         <v>55363</v>
@@ -3821,7 +3815,7 @@
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="3">
         <v>12406</v>
@@ -3832,8 +3826,8 @@
       <c r="D91" s="3">
         <v>4918</v>
       </c>
-      <c r="E91" s="5">
-        <v>0.39639999999999997</v>
+      <c r="E91" s="4">
+        <v>39.64</v>
       </c>
       <c r="F91" s="4">
         <v>741</v>
@@ -3841,8 +3835,8 @@
       <c r="G91" s="3">
         <v>5659</v>
       </c>
-      <c r="H91" s="5">
-        <v>0.45619999999999999</v>
+      <c r="H91" s="4">
+        <v>45.62</v>
       </c>
       <c r="I91" s="3">
         <v>54141</v>
@@ -3850,7 +3844,7 @@
     </row>
     <row r="92" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="3">
         <v>86740</v>
@@ -3861,8 +3855,8 @@
       <c r="D92" s="3">
         <v>45678</v>
       </c>
-      <c r="E92" s="5">
-        <v>0.52659999999999996</v>
+      <c r="E92" s="4">
+        <v>52.66</v>
       </c>
       <c r="F92" s="3">
         <v>4560</v>
@@ -3870,8 +3864,8 @@
       <c r="G92" s="3">
         <v>50238</v>
       </c>
-      <c r="H92" s="5">
-        <v>0.57920000000000005</v>
+      <c r="H92" s="4">
+        <v>57.92</v>
       </c>
       <c r="I92" s="3">
         <v>59554</v>
@@ -3879,7 +3873,7 @@
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" s="3">
         <v>72867</v>
@@ -3890,8 +3884,8 @@
       <c r="D93" s="3">
         <v>38182</v>
       </c>
-      <c r="E93" s="5">
-        <v>0.52400000000000002</v>
+      <c r="E93" s="4">
+        <v>52.4</v>
       </c>
       <c r="F93" s="3">
         <v>4587</v>
@@ -3899,8 +3893,8 @@
       <c r="G93" s="3">
         <v>42769</v>
       </c>
-      <c r="H93" s="5">
-        <v>0.58689999999999998</v>
+      <c r="H93" s="4">
+        <v>58.69</v>
       </c>
       <c r="I93" s="3">
         <v>51394</v>
@@ -3908,7 +3902,7 @@
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="3">
         <v>17877</v>
@@ -3919,8 +3913,8 @@
       <c r="D94" s="3">
         <v>8302</v>
       </c>
-      <c r="E94" s="5">
-        <v>0.46439999999999998</v>
+      <c r="E94" s="4">
+        <v>46.44</v>
       </c>
       <c r="F94" s="3">
         <v>1050</v>
@@ -3928,8 +3922,8 @@
       <c r="G94" s="3">
         <v>9352</v>
       </c>
-      <c r="H94" s="5">
-        <v>0.52310000000000001</v>
+      <c r="H94" s="4">
+        <v>52.31</v>
       </c>
       <c r="I94" s="3">
         <v>57795</v>
@@ -3937,7 +3931,7 @@
     </row>
     <row r="95" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95" s="3">
         <v>111142</v>
@@ -3948,8 +3942,8 @@
       <c r="D95" s="3">
         <v>60820</v>
       </c>
-      <c r="E95" s="5">
-        <v>0.54720000000000002</v>
+      <c r="E95" s="4">
+        <v>54.72</v>
       </c>
       <c r="F95" s="3">
         <v>6520</v>
@@ -3957,8 +3951,8 @@
       <c r="G95" s="3">
         <v>67340</v>
       </c>
-      <c r="H95" s="5">
-        <v>0.60589999999999999</v>
+      <c r="H95" s="4">
+        <v>60.59</v>
       </c>
       <c r="I95" s="3">
         <v>78909</v>
@@ -3966,7 +3960,7 @@
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="3">
         <v>18997</v>
@@ -3977,8 +3971,8 @@
       <c r="D96" s="3">
         <v>6672</v>
       </c>
-      <c r="E96" s="5">
-        <v>0.35120000000000001</v>
+      <c r="E96" s="4">
+        <v>35.119999999999997</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -3986,8 +3980,8 @@
       <c r="G96" s="3">
         <v>6673</v>
       </c>
-      <c r="H96" s="5">
-        <v>0.3513</v>
+      <c r="H96" s="4">
+        <v>35.130000000000003</v>
       </c>
       <c r="I96" s="3">
         <v>46589</v>
@@ -3995,7 +3989,7 @@
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B97" s="3">
         <v>1926</v>
@@ -4006,8 +4000,8 @@
       <c r="D97" s="4">
         <v>708</v>
       </c>
-      <c r="E97" s="5">
-        <v>0.36759999999999998</v>
+      <c r="E97" s="4">
+        <v>36.76</v>
       </c>
       <c r="F97" s="4">
         <v>99</v>
@@ -4015,8 +4009,8 @@
       <c r="G97" s="4">
         <v>807</v>
       </c>
-      <c r="H97" s="5">
-        <v>0.41899999999999998</v>
+      <c r="H97" s="4">
+        <v>41.9</v>
       </c>
       <c r="I97" s="3">
         <v>36654</v>
@@ -4024,7 +4018,7 @@
     </row>
     <row r="98" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B98" s="3">
         <v>5832</v>
@@ -4035,8 +4029,8 @@
       <c r="D98" s="3">
         <v>2793</v>
       </c>
-      <c r="E98" s="5">
-        <v>0.47889999999999999</v>
+      <c r="E98" s="4">
+        <v>47.89</v>
       </c>
       <c r="F98" s="4">
         <v>343</v>
@@ -4044,8 +4038,8 @@
       <c r="G98" s="3">
         <v>3136</v>
       </c>
-      <c r="H98" s="5">
-        <v>0.53769999999999996</v>
+      <c r="H98" s="4">
+        <v>53.77</v>
       </c>
       <c r="I98" s="3">
         <v>52840</v>
@@ -4053,7 +4047,7 @@
     </row>
     <row r="99" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B99" s="3">
         <v>3009</v>
@@ -4064,8 +4058,8 @@
       <c r="D99" s="3">
         <v>1141</v>
       </c>
-      <c r="E99" s="5">
-        <v>0.37919999999999998</v>
+      <c r="E99" s="4">
+        <v>37.92</v>
       </c>
       <c r="F99" s="4">
         <v>203</v>
@@ -4073,8 +4067,8 @@
       <c r="G99" s="3">
         <v>1344</v>
       </c>
-      <c r="H99" s="5">
-        <v>0.44669999999999999</v>
+      <c r="H99" s="4">
+        <v>44.67</v>
       </c>
       <c r="I99" s="3">
         <v>61059</v>
@@ -4082,7 +4076,7 @@
     </row>
     <row r="100" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B100" s="3">
         <v>2486</v>
@@ -4093,8 +4087,8 @@
       <c r="D100" s="4">
         <v>915</v>
       </c>
-      <c r="E100" s="5">
-        <v>0.36809999999999998</v>
+      <c r="E100" s="4">
+        <v>36.81</v>
       </c>
       <c r="F100" s="4">
         <v>95</v>
@@ -4102,8 +4096,8 @@
       <c r="G100" s="3">
         <v>1010</v>
       </c>
-      <c r="H100" s="5">
-        <v>0.40629999999999999</v>
+      <c r="H100" s="4">
+        <v>40.630000000000003</v>
       </c>
       <c r="I100" s="3">
         <v>63479</v>
@@ -4111,7 +4105,7 @@
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B101" s="3">
         <v>39952</v>
@@ -4122,8 +4116,8 @@
       <c r="D101" s="3">
         <v>21241</v>
       </c>
-      <c r="E101" s="5">
-        <v>0.53169999999999995</v>
+      <c r="E101" s="4">
+        <v>53.17</v>
       </c>
       <c r="F101" s="3">
         <v>1457</v>
@@ -4131,8 +4125,8 @@
       <c r="G101" s="3">
         <v>22698</v>
       </c>
-      <c r="H101" s="5">
-        <v>0.56810000000000005</v>
+      <c r="H101" s="4">
+        <v>56.81</v>
       </c>
       <c r="I101" s="3">
         <v>69151</v>
@@ -4140,7 +4134,7 @@
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" s="3">
         <v>2480522</v>
@@ -4151,8 +4145,8 @@
       <c r="D102" s="3">
         <v>1265405</v>
       </c>
-      <c r="E102" s="5">
-        <v>0.5101</v>
+      <c r="E102" s="4">
+        <v>51.01</v>
       </c>
       <c r="F102" s="3">
         <v>171247</v>
@@ -4160,8 +4154,8 @@
       <c r="G102" s="3">
         <v>1436652</v>
       </c>
-      <c r="H102" s="5">
-        <v>0.57920000000000005</v>
+      <c r="H102" s="4">
+        <v>57.92</v>
       </c>
       <c r="I102" s="3">
         <v>61906</v>
@@ -4169,7 +4163,7 @@
     </row>
     <row r="103" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" s="3">
         <v>45933</v>
@@ -4180,8 +4174,8 @@
       <c r="D103" s="3">
         <v>23813</v>
       </c>
-      <c r="E103" s="5">
-        <v>0.51839999999999997</v>
+      <c r="E103" s="4">
+        <v>51.84</v>
       </c>
       <c r="F103" s="3">
         <v>1923</v>
@@ -4189,8 +4183,8 @@
       <c r="G103" s="3">
         <v>25736</v>
       </c>
-      <c r="H103" s="5">
-        <v>0.56030000000000002</v>
+      <c r="H103" s="4">
+        <v>56.03</v>
       </c>
       <c r="I103" s="3">
         <v>55198</v>
@@ -4198,7 +4192,7 @@
     </row>
     <row r="104" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B104" s="3">
         <v>2909</v>
@@ -4209,8 +4203,8 @@
       <c r="D104" s="3">
         <v>1474</v>
       </c>
-      <c r="E104" s="5">
-        <v>0.50670000000000004</v>
+      <c r="E104" s="4">
+        <v>50.67</v>
       </c>
       <c r="F104" s="4">
         <v>138</v>
@@ -4218,8 +4212,8 @@
       <c r="G104" s="3">
         <v>1612</v>
       </c>
-      <c r="H104" s="5">
-        <v>0.55410000000000004</v>
+      <c r="H104" s="4">
+        <v>55.41</v>
       </c>
       <c r="I104" s="3">
         <v>74686</v>
@@ -4227,7 +4221,7 @@
     </row>
     <row r="105" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B105" s="3">
         <v>3377</v>
@@ -4238,8 +4232,8 @@
       <c r="D105" s="3">
         <v>1182</v>
       </c>
-      <c r="E105" s="5">
-        <v>0.35</v>
+      <c r="E105" s="4">
+        <v>35</v>
       </c>
       <c r="F105" s="4">
         <v>195</v>
@@ -4247,8 +4241,8 @@
       <c r="G105" s="3">
         <v>1377</v>
       </c>
-      <c r="H105" s="5">
-        <v>0.4078</v>
+      <c r="H105" s="4">
+        <v>40.78</v>
       </c>
       <c r="I105" s="3">
         <v>44847</v>
@@ -4256,7 +4250,7 @@
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" s="3">
         <v>152840</v>
@@ -4267,8 +4261,8 @@
       <c r="D106" s="3">
         <v>85582</v>
       </c>
-      <c r="E106" s="5">
-        <v>0.55989999999999995</v>
+      <c r="E106" s="4">
+        <v>55.99</v>
       </c>
       <c r="F106" s="3">
         <v>12047</v>
@@ -4276,8 +4270,8 @@
       <c r="G106" s="3">
         <v>97629</v>
       </c>
-      <c r="H106" s="5">
-        <v>0.63880000000000003</v>
+      <c r="H106" s="4">
+        <v>63.88</v>
       </c>
       <c r="I106" s="3">
         <v>77511</v>
@@ -4285,7 +4279,7 @@
     </row>
     <row r="107" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B107" s="3">
         <v>2355</v>
@@ -4296,8 +4290,8 @@
       <c r="D107" s="3">
         <v>1020</v>
       </c>
-      <c r="E107" s="5">
-        <v>0.43309999999999998</v>
+      <c r="E107" s="4">
+        <v>43.31</v>
       </c>
       <c r="F107" s="4">
         <v>139</v>
@@ -4305,8 +4299,8 @@
       <c r="G107" s="3">
         <v>1159</v>
       </c>
-      <c r="H107" s="5">
-        <v>0.49209999999999998</v>
+      <c r="H107" s="4">
+        <v>49.21</v>
       </c>
       <c r="I107" s="3">
         <v>65718</v>
@@ -4314,7 +4308,7 @@
     </row>
     <row r="108" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B108" s="3">
         <v>54663</v>
@@ -4325,8 +4319,8 @@
       <c r="D108" s="3">
         <v>23386</v>
       </c>
-      <c r="E108" s="5">
-        <v>0.42780000000000001</v>
+      <c r="E108" s="4">
+        <v>42.78</v>
       </c>
       <c r="F108" s="3">
         <v>3343</v>
@@ -4334,8 +4328,8 @@
       <c r="G108" s="3">
         <v>26729</v>
       </c>
-      <c r="H108" s="5">
-        <v>0.48899999999999999</v>
+      <c r="H108" s="4">
+        <v>48.9</v>
       </c>
       <c r="I108" s="3">
         <v>52660</v>
@@ -4343,7 +4337,7 @@
     </row>
     <row r="109" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="3">
         <v>391309</v>
@@ -4354,8 +4348,8 @@
       <c r="D109" s="3">
         <v>171829</v>
       </c>
-      <c r="E109" s="5">
-        <v>0.43909999999999999</v>
+      <c r="E109" s="4">
+        <v>43.91</v>
       </c>
       <c r="F109" s="3">
         <v>16620</v>
@@ -4363,8 +4357,8 @@
       <c r="G109" s="3">
         <v>188449</v>
       </c>
-      <c r="H109" s="5">
-        <v>0.48159999999999997</v>
+      <c r="H109" s="4">
+        <v>48.16</v>
       </c>
       <c r="I109" s="3">
         <v>46653</v>
@@ -4372,7 +4366,7 @@
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="3">
         <v>23625</v>
@@ -4383,8 +4377,8 @@
       <c r="D110" s="3">
         <v>8798</v>
       </c>
-      <c r="E110" s="5">
-        <v>0.37240000000000001</v>
+      <c r="E110" s="4">
+        <v>37.24</v>
       </c>
       <c r="F110" s="3">
         <v>1084</v>
@@ -4392,8 +4386,8 @@
       <c r="G110" s="3">
         <v>9882</v>
       </c>
-      <c r="H110" s="5">
-        <v>0.41830000000000001</v>
+      <c r="H110" s="4">
+        <v>41.83</v>
       </c>
       <c r="I110" s="3">
         <v>56565</v>
@@ -4401,7 +4395,7 @@
     </row>
     <row r="111" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" s="3">
         <v>13781</v>
@@ -4412,8 +4406,8 @@
       <c r="D111" s="3">
         <v>5739</v>
       </c>
-      <c r="E111" s="5">
-        <v>0.41639999999999999</v>
+      <c r="E111" s="4">
+        <v>41.64</v>
       </c>
       <c r="F111" s="4">
         <v>526</v>
@@ -4421,8 +4415,8 @@
       <c r="G111" s="3">
         <v>6265</v>
       </c>
-      <c r="H111" s="5">
-        <v>0.4546</v>
+      <c r="H111" s="4">
+        <v>45.46</v>
       </c>
       <c r="I111" s="3">
         <v>55469</v>
@@ -4430,7 +4424,7 @@
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B112" s="3">
         <v>44831</v>
@@ -4441,8 +4435,8 @@
       <c r="D112" s="3">
         <v>22170</v>
       </c>
-      <c r="E112" s="5">
-        <v>0.4945</v>
+      <c r="E112" s="4">
+        <v>49.45</v>
       </c>
       <c r="F112" s="3">
         <v>3522</v>
@@ -4450,8 +4444,8 @@
       <c r="G112" s="3">
         <v>25692</v>
       </c>
-      <c r="H112" s="5">
-        <v>0.57310000000000005</v>
+      <c r="H112" s="4">
+        <v>57.31</v>
       </c>
       <c r="I112" s="3">
         <v>85449</v>
@@ -4459,7 +4453,7 @@
     </row>
     <row r="113" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" s="3">
         <v>23954</v>
@@ -4470,8 +4464,8 @@
       <c r="D113" s="3">
         <v>11632</v>
       </c>
-      <c r="E113" s="5">
-        <v>0.48559999999999998</v>
+      <c r="E113" s="4">
+        <v>48.56</v>
       </c>
       <c r="F113" s="3">
         <v>1141</v>
@@ -4479,8 +4473,8 @@
       <c r="G113" s="3">
         <v>12773</v>
       </c>
-      <c r="H113" s="5">
-        <v>0.53320000000000001</v>
+      <c r="H113" s="4">
+        <v>53.32</v>
       </c>
       <c r="I113" s="3">
         <v>53634</v>
@@ -4488,7 +4482,7 @@
     </row>
     <row r="114" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" s="3">
         <v>13444</v>
@@ -4499,8 +4493,8 @@
       <c r="D114" s="3">
         <v>6265</v>
       </c>
-      <c r="E114" s="5">
-        <v>0.46600000000000003</v>
+      <c r="E114" s="4">
+        <v>46.6</v>
       </c>
       <c r="F114" s="4">
         <v>843</v>
@@ -4508,8 +4502,8 @@
       <c r="G114" s="3">
         <v>7108</v>
       </c>
-      <c r="H114" s="5">
-        <v>0.52869999999999995</v>
+      <c r="H114" s="4">
+        <v>52.87</v>
       </c>
       <c r="I114" s="3">
         <v>45989</v>
@@ -4517,7 +4511,7 @@
     </row>
     <row r="115" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="3">
         <v>17526</v>
@@ -4528,8 +4522,8 @@
       <c r="D115" s="3">
         <v>7538</v>
       </c>
-      <c r="E115" s="5">
-        <v>0.43009999999999998</v>
+      <c r="E115" s="4">
+        <v>43.01</v>
       </c>
       <c r="F115" s="4">
         <v>894</v>
@@ -4537,8 +4531,8 @@
       <c r="G115" s="3">
         <v>8432</v>
       </c>
-      <c r="H115" s="5">
-        <v>0.48110000000000003</v>
+      <c r="H115" s="4">
+        <v>48.11</v>
       </c>
       <c r="I115" s="3">
         <v>58445</v>
@@ -4546,7 +4540,7 @@
     </row>
     <row r="116" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B116" s="3">
         <v>2085</v>
@@ -4557,8 +4551,8 @@
       <c r="D116" s="4">
         <v>505</v>
       </c>
-      <c r="E116" s="5">
-        <v>0.2422</v>
+      <c r="E116" s="4">
+        <v>24.22</v>
       </c>
       <c r="F116" s="4">
         <v>59</v>
@@ -4566,8 +4560,8 @@
       <c r="G116" s="4">
         <v>564</v>
       </c>
-      <c r="H116" s="5">
-        <v>0.27050000000000002</v>
+      <c r="H116" s="4">
+        <v>27.05</v>
       </c>
       <c r="I116" s="3">
         <v>40666</v>
@@ -4575,7 +4569,7 @@
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B117" s="3">
         <v>59367</v>
@@ -4586,8 +4580,8 @@
       <c r="D117" s="3">
         <v>25927</v>
       </c>
-      <c r="E117" s="5">
-        <v>0.43669999999999998</v>
+      <c r="E117" s="4">
+        <v>43.67</v>
       </c>
       <c r="F117" s="3">
         <v>2172</v>
@@ -4595,8 +4589,8 @@
       <c r="G117" s="3">
         <v>28099</v>
       </c>
-      <c r="H117" s="5">
-        <v>0.4733</v>
+      <c r="H117" s="4">
+        <v>47.33</v>
       </c>
       <c r="I117" s="3">
         <v>53760</v>
@@ -4604,7 +4598,7 @@
     </row>
     <row r="118" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="3">
         <v>13533</v>
@@ -4615,8 +4609,8 @@
       <c r="D118" s="3">
         <v>6494</v>
       </c>
-      <c r="E118" s="5">
-        <v>0.47989999999999999</v>
+      <c r="E118" s="4">
+        <v>47.99</v>
       </c>
       <c r="F118" s="4">
         <v>505</v>
@@ -4624,8 +4618,8 @@
       <c r="G118" s="3">
         <v>6999</v>
       </c>
-      <c r="H118" s="5">
-        <v>0.51719999999999999</v>
+      <c r="H118" s="4">
+        <v>51.72</v>
       </c>
       <c r="I118" s="3">
         <v>62536</v>
@@ -4633,7 +4627,7 @@
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B119" s="3">
         <v>1298</v>
@@ -4644,8 +4638,8 @@
       <c r="D119" s="4">
         <v>623</v>
       </c>
-      <c r="E119" s="5">
-        <v>0.48</v>
+      <c r="E119" s="4">
+        <v>48</v>
       </c>
       <c r="F119" s="4">
         <v>45</v>
@@ -4653,8 +4647,8 @@
       <c r="G119" s="4">
         <v>668</v>
       </c>
-      <c r="H119" s="5">
-        <v>0.51459999999999995</v>
+      <c r="H119" s="4">
+        <v>51.46</v>
       </c>
       <c r="I119" s="3">
         <v>73776</v>
@@ -4662,7 +4656,7 @@
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B120" s="3">
         <v>5254</v>
@@ -4673,8 +4667,8 @@
       <c r="D120" s="3">
         <v>2634</v>
       </c>
-      <c r="E120" s="5">
-        <v>0.50129999999999997</v>
+      <c r="E120" s="4">
+        <v>50.13</v>
       </c>
       <c r="F120" s="4">
         <v>293</v>
@@ -4682,8 +4676,8 @@
       <c r="G120" s="3">
         <v>2927</v>
       </c>
-      <c r="H120" s="5">
-        <v>0.55710000000000004</v>
+      <c r="H120" s="4">
+        <v>55.71</v>
       </c>
       <c r="I120" s="3">
         <v>56028</v>
@@ -4691,7 +4685,7 @@
     </row>
     <row r="121" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121" s="3">
         <v>9482</v>
@@ -4702,8 +4696,8 @@
       <c r="D121" s="3">
         <v>4535</v>
       </c>
-      <c r="E121" s="5">
-        <v>0.4783</v>
+      <c r="E121" s="4">
+        <v>47.83</v>
       </c>
       <c r="F121" s="4">
         <v>458</v>
@@ -4711,8 +4705,8 @@
       <c r="G121" s="3">
         <v>4993</v>
       </c>
-      <c r="H121" s="5">
-        <v>0.52659999999999996</v>
+      <c r="H121" s="4">
+        <v>52.66</v>
       </c>
       <c r="I121" s="3">
         <v>56101</v>
@@ -4720,7 +4714,7 @@
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B122" s="3">
         <v>23374</v>
@@ -4731,8 +4725,8 @@
       <c r="D122" s="3">
         <v>11920</v>
       </c>
-      <c r="E122" s="5">
-        <v>0.51</v>
+      <c r="E122" s="4">
+        <v>51</v>
       </c>
       <c r="F122" s="4">
         <v>885</v>
@@ -4740,8 +4734,8 @@
       <c r="G122" s="3">
         <v>12805</v>
       </c>
-      <c r="H122" s="5">
-        <v>0.54779999999999995</v>
+      <c r="H122" s="4">
+        <v>54.78</v>
       </c>
       <c r="I122" s="3">
         <v>51153</v>
@@ -4749,7 +4743,7 @@
     </row>
     <row r="123" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B123" s="3">
         <v>1670</v>
@@ -4760,8 +4754,8 @@
       <c r="D123" s="4">
         <v>911</v>
       </c>
-      <c r="E123" s="5">
-        <v>0.54549999999999998</v>
+      <c r="E123" s="4">
+        <v>54.55</v>
       </c>
       <c r="F123" s="4">
         <v>127</v>
@@ -4769,8 +4763,8 @@
       <c r="G123" s="3">
         <v>1038</v>
       </c>
-      <c r="H123" s="5">
-        <v>0.62160000000000004</v>
+      <c r="H123" s="4">
+        <v>62.16</v>
       </c>
       <c r="I123" s="3">
         <v>55718</v>
@@ -4778,7 +4772,7 @@
     </row>
     <row r="124" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B124" s="3">
         <v>149372</v>
@@ -4789,8 +4783,8 @@
       <c r="D124" s="3">
         <v>75946</v>
       </c>
-      <c r="E124" s="5">
-        <v>0.50839999999999996</v>
+      <c r="E124" s="4">
+        <v>50.84</v>
       </c>
       <c r="F124" s="3">
         <v>8157</v>
@@ -4798,8 +4792,8 @@
       <c r="G124" s="3">
         <v>84103</v>
       </c>
-      <c r="H124" s="5">
-        <v>0.56299999999999994</v>
+      <c r="H124" s="4">
+        <v>56.3</v>
       </c>
       <c r="I124" s="3">
         <v>48808</v>
@@ -4807,7 +4801,7 @@
     </row>
     <row r="125" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B125" s="3">
         <v>3800</v>
@@ -4818,8 +4812,8 @@
       <c r="D125" s="3">
         <v>1004</v>
       </c>
-      <c r="E125" s="5">
-        <v>0.26419999999999999</v>
+      <c r="E125" s="4">
+        <v>26.42</v>
       </c>
       <c r="F125" s="4">
         <v>442</v>
@@ -4827,8 +4821,8 @@
       <c r="G125" s="3">
         <v>1446</v>
       </c>
-      <c r="H125" s="5">
-        <v>0.3805</v>
+      <c r="H125" s="4">
+        <v>38.049999999999997</v>
       </c>
       <c r="I125" s="3">
         <v>41620</v>
@@ -4836,7 +4830,7 @@
     </row>
     <row r="126" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B126" s="3">
         <v>26636</v>
@@ -4847,8 +4841,8 @@
       <c r="D126" s="3">
         <v>8818</v>
       </c>
-      <c r="E126" s="5">
-        <v>0.33110000000000001</v>
+      <c r="E126" s="4">
+        <v>33.11</v>
       </c>
       <c r="F126" s="4">
         <v>4</v>
@@ -4856,8 +4850,8 @@
       <c r="G126" s="3">
         <v>8822</v>
       </c>
-      <c r="H126" s="5">
-        <v>0.33119999999999999</v>
+      <c r="H126" s="4">
+        <v>33.119999999999997</v>
       </c>
       <c r="I126" s="3">
         <v>48773</v>
@@ -4865,7 +4859,7 @@
     </row>
     <row r="127" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B127" s="3">
         <v>105574</v>
@@ -4876,8 +4870,8 @@
       <c r="D127" s="3">
         <v>56197</v>
       </c>
-      <c r="E127" s="5">
-        <v>0.5323</v>
+      <c r="E127" s="4">
+        <v>53.23</v>
       </c>
       <c r="F127" s="3">
         <v>4440</v>
@@ -4885,8 +4879,8 @@
       <c r="G127" s="3">
         <v>60637</v>
       </c>
-      <c r="H127" s="5">
-        <v>0.57440000000000002</v>
+      <c r="H127" s="4">
+        <v>57.44</v>
       </c>
       <c r="I127" s="3">
         <v>67382</v>
@@ -4894,7 +4888,7 @@
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="3">
         <v>9635</v>
@@ -4905,8 +4899,8 @@
       <c r="D128" s="3">
         <v>3715</v>
       </c>
-      <c r="E128" s="5">
-        <v>0.3856</v>
+      <c r="E128" s="4">
+        <v>38.56</v>
       </c>
       <c r="F128" s="4">
         <v>625</v>
@@ -4914,8 +4908,8 @@
       <c r="G128" s="3">
         <v>4340</v>
       </c>
-      <c r="H128" s="5">
-        <v>0.45040000000000002</v>
+      <c r="H128" s="4">
+        <v>45.04</v>
       </c>
       <c r="I128" s="3">
         <v>47019</v>
@@ -4923,7 +4917,7 @@
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B129" s="3">
         <v>8359</v>
@@ -4934,8 +4928,8 @@
       <c r="D129" s="3">
         <v>3027</v>
       </c>
-      <c r="E129" s="5">
-        <v>0.36209999999999998</v>
+      <c r="E129" s="4">
+        <v>36.21</v>
       </c>
       <c r="F129" s="4">
         <v>656</v>
@@ -4943,8 +4937,8 @@
       <c r="G129" s="3">
         <v>3683</v>
       </c>
-      <c r="H129" s="5">
-        <v>0.44059999999999999</v>
+      <c r="H129" s="4">
+        <v>44.06</v>
       </c>
       <c r="I129" s="3">
         <v>56006</v>
@@ -4952,7 +4946,7 @@
     </row>
     <row r="130" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B130" s="3">
         <v>81901</v>
@@ -4963,8 +4957,8 @@
       <c r="D130" s="3">
         <v>44750</v>
       </c>
-      <c r="E130" s="5">
-        <v>0.5464</v>
+      <c r="E130" s="4">
+        <v>54.64</v>
       </c>
       <c r="F130" s="3">
         <v>3144</v>
@@ -4972,8 +4966,8 @@
       <c r="G130" s="3">
         <v>47894</v>
       </c>
-      <c r="H130" s="5">
-        <v>0.58479999999999999</v>
+      <c r="H130" s="4">
+        <v>58.48</v>
       </c>
       <c r="I130" s="3">
         <v>76352</v>
@@ -4981,7 +4975,7 @@
     </row>
     <row r="131" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B131" s="3">
         <v>33836</v>
@@ -4992,8 +4986,8 @@
       <c r="D131" s="3">
         <v>20856</v>
       </c>
-      <c r="E131" s="5">
-        <v>0.61639999999999995</v>
+      <c r="E131" s="4">
+        <v>61.64</v>
       </c>
       <c r="F131" s="3">
         <v>2453</v>
@@ -5001,8 +4995,8 @@
       <c r="G131" s="3">
         <v>23309</v>
       </c>
-      <c r="H131" s="5">
-        <v>0.68889999999999996</v>
+      <c r="H131" s="4">
+        <v>68.89</v>
       </c>
       <c r="I131" s="3">
         <v>103216</v>
@@ -5010,7 +5004,7 @@
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B132" s="4">
         <v>296</v>
@@ -5021,8 +5015,8 @@
       <c r="D132" s="4">
         <v>123</v>
       </c>
-      <c r="E132" s="5">
-        <v>0.41549999999999998</v>
+      <c r="E132" s="4">
+        <v>41.55</v>
       </c>
       <c r="F132" s="4">
         <v>13</v>
@@ -5030,8 +5024,8 @@
       <c r="G132" s="4">
         <v>136</v>
       </c>
-      <c r="H132" s="5">
-        <v>0.45950000000000002</v>
+      <c r="H132" s="4">
+        <v>45.95</v>
       </c>
       <c r="I132" s="3">
         <v>45980</v>
@@ -5039,7 +5033,7 @@
     </row>
     <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B133" s="4">
         <v>592</v>
@@ -5050,8 +5044,8 @@
       <c r="D133" s="4">
         <v>267</v>
       </c>
-      <c r="E133" s="5">
-        <v>0.45100000000000001</v>
+      <c r="E133" s="4">
+        <v>45.1</v>
       </c>
       <c r="F133" s="4">
         <v>37</v>
@@ -5059,8 +5053,8 @@
       <c r="G133" s="4">
         <v>304</v>
       </c>
-      <c r="H133" s="5">
-        <v>0.51349999999999996</v>
+      <c r="H133" s="4">
+        <v>51.35</v>
       </c>
       <c r="I133" s="3">
         <v>53472</v>
@@ -5068,7 +5062,7 @@
     </row>
     <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B134" s="3">
         <v>37726</v>
@@ -5079,8 +5073,8 @@
       <c r="D134" s="3">
         <v>20374</v>
       </c>
-      <c r="E134" s="5">
-        <v>0.54010000000000002</v>
+      <c r="E134" s="4">
+        <v>54.01</v>
       </c>
       <c r="F134" s="4">
         <v>149</v>
@@ -5088,8 +5082,8 @@
       <c r="G134" s="3">
         <v>20523</v>
       </c>
-      <c r="H134" s="5">
-        <v>0.54400000000000004</v>
+      <c r="H134" s="4">
+        <v>54.4</v>
       </c>
       <c r="I134" s="3">
         <v>57425</v>
@@ -5097,7 +5091,7 @@
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B135" s="3">
         <v>3113</v>
@@ -5108,8 +5102,8 @@
       <c r="D135" s="3">
         <v>1619</v>
       </c>
-      <c r="E135" s="5">
-        <v>0.52010000000000001</v>
+      <c r="E135" s="4">
+        <v>52.01</v>
       </c>
       <c r="F135" s="4">
         <v>203</v>
@@ -5117,8 +5111,8 @@
       <c r="G135" s="3">
         <v>1822</v>
       </c>
-      <c r="H135" s="5">
-        <v>0.58530000000000004</v>
+      <c r="H135" s="4">
+        <v>58.53</v>
       </c>
       <c r="I135" s="3">
         <v>47894</v>
@@ -5126,7 +5120,7 @@
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B136" s="4">
         <v>183</v>
@@ -5137,8 +5131,8 @@
       <c r="D136" s="4">
         <v>96</v>
       </c>
-      <c r="E136" s="5">
-        <v>0.52459999999999996</v>
+      <c r="E136" s="4">
+        <v>52.46</v>
       </c>
       <c r="F136" s="4">
         <v>10</v>
@@ -5146,8 +5140,8 @@
       <c r="G136" s="4">
         <v>106</v>
       </c>
-      <c r="H136" s="5">
-        <v>0.57920000000000005</v>
+      <c r="H136" s="4">
+        <v>57.92</v>
       </c>
       <c r="I136" s="3">
         <v>78210</v>
@@ -5155,7 +5149,7 @@
     </row>
     <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B137" s="3">
         <v>2270</v>
@@ -5166,8 +5160,8 @@
       <c r="D137" s="3">
         <v>1193</v>
       </c>
-      <c r="E137" s="5">
-        <v>0.52559999999999996</v>
+      <c r="E137" s="4">
+        <v>52.56</v>
       </c>
       <c r="F137" s="4">
         <v>79</v>
@@ -5175,8 +5169,8 @@
       <c r="G137" s="3">
         <v>1272</v>
       </c>
-      <c r="H137" s="5">
-        <v>0.56040000000000001</v>
+      <c r="H137" s="4">
+        <v>56.04</v>
       </c>
       <c r="I137" s="3">
         <v>62557</v>
@@ -5184,7 +5178,7 @@
     </row>
     <row r="138" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B138" s="3">
         <v>18749</v>
@@ -5195,8 +5189,8 @@
       <c r="D138" s="3">
         <v>7447</v>
       </c>
-      <c r="E138" s="5">
-        <v>0.3972</v>
+      <c r="E138" s="4">
+        <v>39.72</v>
       </c>
       <c r="F138" s="3">
         <v>1358</v>
@@ -5204,8 +5198,8 @@
       <c r="G138" s="3">
         <v>8805</v>
       </c>
-      <c r="H138" s="5">
-        <v>0.46960000000000002</v>
+      <c r="H138" s="4">
+        <v>46.96</v>
       </c>
       <c r="I138" s="3">
         <v>51574</v>
@@ -5213,7 +5207,7 @@
     </row>
     <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B139" s="3">
         <v>2391</v>
@@ -5224,8 +5218,8 @@
       <c r="D139" s="4">
         <v>640</v>
       </c>
-      <c r="E139" s="5">
-        <v>0.26769999999999999</v>
+      <c r="E139" s="4">
+        <v>26.77</v>
       </c>
       <c r="F139" s="4">
         <v>119</v>
@@ -5233,8 +5227,8 @@
       <c r="G139" s="4">
         <v>759</v>
       </c>
-      <c r="H139" s="5">
-        <v>0.31740000000000002</v>
+      <c r="H139" s="4">
+        <v>31.74</v>
       </c>
       <c r="I139" s="3">
         <v>46053</v>
@@ -5242,7 +5236,7 @@
     </row>
     <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B140" s="3">
         <v>32390</v>
@@ -5253,8 +5247,8 @@
       <c r="D140" s="3">
         <v>14816</v>
       </c>
-      <c r="E140" s="5">
-        <v>0.45739999999999997</v>
+      <c r="E140" s="4">
+        <v>45.74</v>
       </c>
       <c r="F140" s="3">
         <v>1401</v>
@@ -5262,8 +5256,8 @@
       <c r="G140" s="3">
         <v>16217</v>
       </c>
-      <c r="H140" s="5">
-        <v>0.50070000000000003</v>
+      <c r="H140" s="4">
+        <v>50.07</v>
       </c>
       <c r="I140" s="3">
         <v>45647</v>
@@ -5271,7 +5265,7 @@
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B141" s="3">
         <v>8085</v>
@@ -5282,8 +5276,8 @@
       <c r="D141" s="3">
         <v>2676</v>
       </c>
-      <c r="E141" s="5">
-        <v>0.33100000000000002</v>
+      <c r="E141" s="4">
+        <v>33.1</v>
       </c>
       <c r="F141" s="4">
         <v>402</v>
@@ -5291,8 +5285,8 @@
       <c r="G141" s="3">
         <v>3078</v>
       </c>
-      <c r="H141" s="5">
-        <v>0.38069999999999998</v>
+      <c r="H141" s="4">
+        <v>38.07</v>
       </c>
       <c r="I141" s="3">
         <v>44688</v>
@@ -5300,7 +5294,7 @@
     </row>
     <row r="142" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B142" s="3">
         <v>15424</v>
@@ -5311,8 +5305,8 @@
       <c r="D142" s="3">
         <v>7599</v>
       </c>
-      <c r="E142" s="5">
-        <v>0.49270000000000003</v>
+      <c r="E142" s="4">
+        <v>49.27</v>
       </c>
       <c r="F142" s="4">
         <v>943</v>
@@ -5320,8 +5314,8 @@
       <c r="G142" s="3">
         <v>8542</v>
       </c>
-      <c r="H142" s="5">
-        <v>0.55379999999999996</v>
+      <c r="H142" s="4">
+        <v>55.38</v>
       </c>
       <c r="I142" s="3">
         <v>48123</v>
@@ -5329,7 +5323,7 @@
     </row>
     <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B143" s="3">
         <v>4426</v>
@@ -5340,8 +5334,8 @@
       <c r="D143" s="3">
         <v>1307</v>
       </c>
-      <c r="E143" s="5">
-        <v>0.29530000000000001</v>
+      <c r="E143" s="4">
+        <v>29.53</v>
       </c>
       <c r="F143" s="4">
         <v>338</v>
@@ -5349,8 +5343,8 @@
       <c r="G143" s="3">
         <v>1645</v>
       </c>
-      <c r="H143" s="5">
-        <v>0.37169999999999997</v>
+      <c r="H143" s="4">
+        <v>37.17</v>
       </c>
       <c r="I143" s="3">
         <v>69051</v>
@@ -5358,7 +5352,7 @@
     </row>
     <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B144" s="3">
         <v>13661</v>
@@ -5369,8 +5363,8 @@
       <c r="D144" s="3">
         <v>6379</v>
       </c>
-      <c r="E144" s="5">
-        <v>0.46689999999999998</v>
+      <c r="E144" s="4">
+        <v>46.69</v>
       </c>
       <c r="F144" s="4">
         <v>899</v>
@@ -5378,8 +5372,8 @@
       <c r="G144" s="3">
         <v>7278</v>
       </c>
-      <c r="H144" s="5">
-        <v>0.53280000000000005</v>
+      <c r="H144" s="4">
+        <v>53.28</v>
       </c>
       <c r="I144" s="3">
         <v>57999</v>
@@ -5387,7 +5381,7 @@
     </row>
     <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145" s="3">
         <v>11145</v>
@@ -5398,8 +5392,8 @@
       <c r="D145" s="3">
         <v>5882</v>
       </c>
-      <c r="E145" s="5">
-        <v>0.52780000000000005</v>
+      <c r="E145" s="4">
+        <v>52.78</v>
       </c>
       <c r="F145" s="4">
         <v>628</v>
@@ -5407,8 +5401,8 @@
       <c r="G145" s="3">
         <v>6510</v>
       </c>
-      <c r="H145" s="5">
-        <v>0.58409999999999995</v>
+      <c r="H145" s="4">
+        <v>58.41</v>
       </c>
       <c r="I145" s="3">
         <v>61444</v>
@@ -5416,7 +5410,7 @@
     </row>
     <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" s="3">
         <v>11727</v>
@@ -5427,8 +5421,8 @@
       <c r="D146" s="3">
         <v>4961</v>
       </c>
-      <c r="E146" s="5">
-        <v>0.42299999999999999</v>
+      <c r="E146" s="4">
+        <v>42.3</v>
       </c>
       <c r="F146" s="4">
         <v>691</v>
@@ -5436,8 +5430,8 @@
       <c r="G146" s="3">
         <v>5652</v>
       </c>
-      <c r="H146" s="5">
-        <v>0.48199999999999998</v>
+      <c r="H146" s="4">
+        <v>48.2</v>
       </c>
       <c r="I146" s="3">
         <v>52878</v>
@@ -5445,7 +5439,7 @@
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B147" s="3">
         <v>46155</v>
@@ -5456,8 +5450,8 @@
       <c r="D147" s="3">
         <v>21513</v>
       </c>
-      <c r="E147" s="5">
-        <v>0.46610000000000001</v>
+      <c r="E147" s="4">
+        <v>46.61</v>
       </c>
       <c r="F147" s="3">
         <v>1215</v>
@@ -5465,8 +5459,8 @@
       <c r="G147" s="3">
         <v>22728</v>
       </c>
-      <c r="H147" s="5">
-        <v>0.4924</v>
+      <c r="H147" s="4">
+        <v>49.24</v>
       </c>
       <c r="I147" s="3">
         <v>61230</v>
@@ -5474,7 +5468,7 @@
     </row>
     <row r="148" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B148" s="3">
         <v>13963</v>
@@ -5485,8 +5479,8 @@
       <c r="D148" s="3">
         <v>6145</v>
       </c>
-      <c r="E148" s="5">
-        <v>0.44009999999999999</v>
+      <c r="E148" s="4">
+        <v>44.01</v>
       </c>
       <c r="F148" s="4">
         <v>724</v>
@@ -5494,8 +5488,8 @@
       <c r="G148" s="3">
         <v>6869</v>
       </c>
-      <c r="H148" s="5">
-        <v>0.4919</v>
+      <c r="H148" s="4">
+        <v>49.19</v>
       </c>
       <c r="I148" s="3">
         <v>53143</v>
@@ -5503,7 +5497,7 @@
     </row>
     <row r="149" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B149" s="3">
         <v>1977</v>
@@ -5514,8 +5508,8 @@
       <c r="D149" s="4">
         <v>404</v>
       </c>
-      <c r="E149" s="5">
-        <v>0.2044</v>
+      <c r="E149" s="4">
+        <v>20.440000000000001</v>
       </c>
       <c r="F149" s="4">
         <v>161</v>
@@ -5523,8 +5517,8 @@
       <c r="G149" s="4">
         <v>565</v>
       </c>
-      <c r="H149" s="5">
-        <v>0.2858</v>
+      <c r="H149" s="4">
+        <v>28.58</v>
       </c>
       <c r="I149" s="3">
         <v>67775</v>
@@ -5532,7 +5526,7 @@
     </row>
     <row r="150" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B150" s="3">
         <v>7572</v>
@@ -5543,8 +5537,8 @@
       <c r="D150" s="3">
         <v>3047</v>
       </c>
-      <c r="E150" s="5">
-        <v>0.40239999999999998</v>
+      <c r="E150" s="4">
+        <v>40.24</v>
       </c>
       <c r="F150" s="4">
         <v>338</v>
@@ -5552,8 +5546,8 @@
       <c r="G150" s="3">
         <v>3385</v>
       </c>
-      <c r="H150" s="5">
-        <v>0.44700000000000001</v>
+      <c r="H150" s="4">
+        <v>44.7</v>
       </c>
       <c r="I150" s="3">
         <v>54031</v>
@@ -5561,7 +5555,7 @@
     </row>
     <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151" s="3">
         <v>16688</v>
@@ -5572,8 +5566,8 @@
       <c r="D151" s="3">
         <v>9354</v>
       </c>
-      <c r="E151" s="5">
-        <v>0.5605</v>
+      <c r="E151" s="4">
+        <v>56.05</v>
       </c>
       <c r="F151" s="4">
         <v>16</v>
@@ -5581,8 +5575,8 @@
       <c r="G151" s="3">
         <v>9370</v>
       </c>
-      <c r="H151" s="5">
-        <v>0.5615</v>
+      <c r="H151" s="4">
+        <v>56.15</v>
       </c>
       <c r="I151" s="3">
         <v>60706</v>
@@ -5590,7 +5584,7 @@
     </row>
     <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B152" s="4">
         <v>111</v>
@@ -5601,8 +5595,8 @@
       <c r="D152" s="4">
         <v>39</v>
       </c>
-      <c r="E152" s="5">
-        <v>0.35139999999999999</v>
+      <c r="E152" s="4">
+        <v>35.14</v>
       </c>
       <c r="F152" s="4">
         <v>6</v>
@@ -5610,8 +5604,8 @@
       <c r="G152" s="4">
         <v>45</v>
       </c>
-      <c r="H152" s="5">
-        <v>0.40539999999999998</v>
+      <c r="H152" s="4">
+        <v>40.54</v>
       </c>
       <c r="I152" s="3">
         <v>97491</v>
@@ -5619,7 +5613,7 @@
     </row>
     <row r="153" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B153" s="3">
         <v>183320</v>
@@ -5630,8 +5624,8 @@
       <c r="D153" s="3">
         <v>96214</v>
       </c>
-      <c r="E153" s="5">
-        <v>0.52480000000000004</v>
+      <c r="E153" s="4">
+        <v>52.48</v>
       </c>
       <c r="F153" s="3">
         <v>8634</v>
@@ -5639,8 +5633,8 @@
       <c r="G153" s="3">
         <v>104848</v>
       </c>
-      <c r="H153" s="5">
-        <v>0.57189999999999996</v>
+      <c r="H153" s="4">
+        <v>57.19</v>
       </c>
       <c r="I153" s="3">
         <v>56477</v>
@@ -5648,7 +5642,7 @@
     </row>
     <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B154" s="3">
         <v>4028</v>
@@ -5659,8 +5653,8 @@
       <c r="D154" s="3">
         <v>1141</v>
       </c>
-      <c r="E154" s="5">
-        <v>0.2833</v>
+      <c r="E154" s="4">
+        <v>28.33</v>
       </c>
       <c r="F154" s="4">
         <v>119</v>
@@ -5668,8 +5662,8 @@
       <c r="G154" s="3">
         <v>1260</v>
       </c>
-      <c r="H154" s="5">
-        <v>0.31280000000000002</v>
+      <c r="H154" s="4">
+        <v>31.28</v>
       </c>
       <c r="I154" s="3">
         <v>51003</v>
@@ -5677,7 +5671,7 @@
     </row>
     <row r="155" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B155" s="3">
         <v>7822</v>
@@ -5688,8 +5682,8 @@
       <c r="D155" s="3">
         <v>3915</v>
       </c>
-      <c r="E155" s="5">
-        <v>0.50049999999999994</v>
+      <c r="E155" s="4">
+        <v>50.05</v>
       </c>
       <c r="F155" s="4">
         <v>430</v>
@@ -5697,8 +5691,8 @@
       <c r="G155" s="3">
         <v>4345</v>
       </c>
-      <c r="H155" s="5">
-        <v>0.55549999999999999</v>
+      <c r="H155" s="4">
+        <v>55.55</v>
       </c>
       <c r="I155" s="3">
         <v>58674</v>
@@ -5706,7 +5700,7 @@
     </row>
     <row r="156" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B156" s="3">
         <v>7596</v>
@@ -5717,8 +5711,8 @@
       <c r="D156" s="3">
         <v>3185</v>
       </c>
-      <c r="E156" s="5">
-        <v>0.41930000000000001</v>
+      <c r="E156" s="4">
+        <v>41.93</v>
       </c>
       <c r="F156" s="4">
         <v>532</v>
@@ -5726,8 +5720,8 @@
       <c r="G156" s="3">
         <v>3717</v>
       </c>
-      <c r="H156" s="5">
-        <v>0.48930000000000001</v>
+      <c r="H156" s="4">
+        <v>48.93</v>
       </c>
       <c r="I156" s="3">
         <v>42024</v>
@@ -5735,7 +5729,7 @@
     </row>
     <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B157" s="3">
         <v>3467</v>
@@ -5746,8 +5740,8 @@
       <c r="D157" s="3">
         <v>1622</v>
       </c>
-      <c r="E157" s="5">
-        <v>0.46779999999999999</v>
+      <c r="E157" s="4">
+        <v>46.78</v>
       </c>
       <c r="F157" s="4">
         <v>71</v>
@@ -5755,8 +5749,8 @@
       <c r="G157" s="3">
         <v>1693</v>
       </c>
-      <c r="H157" s="5">
-        <v>0.48830000000000001</v>
+      <c r="H157" s="4">
+        <v>48.83</v>
       </c>
       <c r="I157" s="3">
         <v>73367</v>
@@ -5764,7 +5758,7 @@
     </row>
     <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B158" s="3">
         <v>3168</v>
@@ -5775,8 +5769,8 @@
       <c r="D158" s="3">
         <v>1849</v>
       </c>
-      <c r="E158" s="5">
-        <v>0.58360000000000001</v>
+      <c r="E158" s="4">
+        <v>58.36</v>
       </c>
       <c r="F158" s="4">
         <v>215</v>
@@ -5784,8 +5778,8 @@
       <c r="G158" s="3">
         <v>2064</v>
       </c>
-      <c r="H158" s="5">
-        <v>0.65149999999999997</v>
+      <c r="H158" s="4">
+        <v>65.150000000000006</v>
       </c>
       <c r="I158" s="3">
         <v>63120</v>
@@ -5793,7 +5787,7 @@
     </row>
     <row r="159" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B159" s="3">
         <v>22026</v>
@@ -5804,8 +5798,8 @@
       <c r="D159" s="3">
         <v>9697</v>
       </c>
-      <c r="E159" s="5">
-        <v>0.44030000000000002</v>
+      <c r="E159" s="4">
+        <v>44.03</v>
       </c>
       <c r="F159" s="3">
         <v>1195</v>
@@ -5813,8 +5807,8 @@
       <c r="G159" s="3">
         <v>10892</v>
       </c>
-      <c r="H159" s="5">
-        <v>0.4945</v>
+      <c r="H159" s="4">
+        <v>49.45</v>
       </c>
       <c r="I159" s="3">
         <v>52241</v>
@@ -5822,7 +5816,7 @@
     </row>
     <row r="160" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B160" s="3">
         <v>33050</v>
@@ -5833,8 +5827,8 @@
       <c r="D160" s="3">
         <v>10441</v>
       </c>
-      <c r="E160" s="5">
-        <v>0.31590000000000001</v>
+      <c r="E160" s="4">
+        <v>31.59</v>
       </c>
       <c r="F160" s="4">
         <v>936</v>
@@ -5842,8 +5836,8 @@
       <c r="G160" s="3">
         <v>11377</v>
       </c>
-      <c r="H160" s="5">
-        <v>0.34420000000000001</v>
+      <c r="H160" s="4">
+        <v>34.42</v>
       </c>
       <c r="I160" s="3">
         <v>41324</v>
@@ -5851,7 +5845,7 @@
     </row>
     <row r="161" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B161" s="3">
         <v>5361</v>
@@ -5862,8 +5856,8 @@
       <c r="D161" s="3">
         <v>2371</v>
       </c>
-      <c r="E161" s="5">
-        <v>0.44230000000000003</v>
+      <c r="E161" s="4">
+        <v>44.23</v>
       </c>
       <c r="F161" s="4">
         <v>293</v>
@@ -5871,8 +5865,8 @@
       <c r="G161" s="3">
         <v>2664</v>
       </c>
-      <c r="H161" s="5">
-        <v>0.49690000000000001</v>
+      <c r="H161" s="4">
+        <v>49.69</v>
       </c>
       <c r="I161" s="3">
         <v>47617</v>
@@ -5880,7 +5874,7 @@
     </row>
     <row r="162" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B162" s="3">
         <v>149461</v>
@@ -5891,8 +5885,8 @@
       <c r="D162" s="3">
         <v>69881</v>
       </c>
-      <c r="E162" s="5">
-        <v>0.46760000000000002</v>
+      <c r="E162" s="4">
+        <v>46.76</v>
       </c>
       <c r="F162" s="3">
         <v>10337</v>
@@ -5900,8 +5894,8 @@
       <c r="G162" s="3">
         <v>80218</v>
       </c>
-      <c r="H162" s="5">
-        <v>0.53669999999999995</v>
+      <c r="H162" s="4">
+        <v>53.67</v>
       </c>
       <c r="I162" s="3">
         <v>55148</v>
@@ -5909,7 +5903,7 @@
     </row>
     <row r="163" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B163" s="4">
         <v>706</v>
@@ -5920,8 +5914,8 @@
       <c r="D163" s="4">
         <v>343</v>
       </c>
-      <c r="E163" s="5">
-        <v>0.48580000000000001</v>
+      <c r="E163" s="4">
+        <v>48.58</v>
       </c>
       <c r="F163" s="4">
         <v>21</v>
@@ -5929,8 +5923,8 @@
       <c r="G163" s="4">
         <v>364</v>
       </c>
-      <c r="H163" s="5">
-        <v>0.51559999999999995</v>
+      <c r="H163" s="4">
+        <v>51.56</v>
       </c>
       <c r="I163" s="3">
         <v>45927</v>
@@ -5938,7 +5932,7 @@
     </row>
     <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B164" s="3">
         <v>33763</v>
@@ -5949,8 +5943,8 @@
       <c r="D164" s="3">
         <v>17934</v>
       </c>
-      <c r="E164" s="5">
-        <v>0.53120000000000001</v>
+      <c r="E164" s="4">
+        <v>53.12</v>
       </c>
       <c r="F164" s="3">
         <v>1814</v>
@@ -5958,8 +5952,8 @@
       <c r="G164" s="3">
         <v>19748</v>
       </c>
-      <c r="H164" s="5">
-        <v>0.58489999999999998</v>
+      <c r="H164" s="4">
+        <v>58.49</v>
       </c>
       <c r="I164" s="3">
         <v>62600</v>
@@ -5967,7 +5961,7 @@
     </row>
     <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B165" s="3">
         <v>1469</v>
@@ -5978,8 +5972,8 @@
       <c r="D165" s="4">
         <v>672</v>
       </c>
-      <c r="E165" s="5">
-        <v>0.45750000000000002</v>
+      <c r="E165" s="4">
+        <v>45.75</v>
       </c>
       <c r="F165" s="4">
         <v>145</v>
@@ -5987,8 +5981,8 @@
       <c r="G165" s="4">
         <v>817</v>
       </c>
-      <c r="H165" s="5">
-        <v>0.55620000000000003</v>
+      <c r="H165" s="4">
+        <v>55.62</v>
       </c>
       <c r="I165" s="3">
         <v>41477</v>
@@ -5996,7 +5990,7 @@
     </row>
     <row r="166" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B166" s="3">
         <v>90392</v>
@@ -6007,8 +6001,8 @@
       <c r="D166" s="3">
         <v>46139</v>
       </c>
-      <c r="E166" s="5">
-        <v>0.51039999999999996</v>
+      <c r="E166" s="4">
+        <v>51.04</v>
       </c>
       <c r="F166" s="3">
         <v>2762</v>
@@ -6016,8 +6010,8 @@
       <c r="G166" s="3">
         <v>48901</v>
       </c>
-      <c r="H166" s="5">
-        <v>0.54100000000000004</v>
+      <c r="H166" s="4">
+        <v>54.1</v>
       </c>
       <c r="I166" s="3">
         <v>92117</v>
@@ -6025,7 +6019,7 @@
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B167" s="3">
         <v>15838</v>
@@ -6036,8 +6030,8 @@
       <c r="D167" s="3">
         <v>7944</v>
       </c>
-      <c r="E167" s="5">
-        <v>0.50160000000000005</v>
+      <c r="E167" s="4">
+        <v>50.16</v>
       </c>
       <c r="F167" s="4">
         <v>912</v>
@@ -6045,8 +6039,8 @@
       <c r="G167" s="3">
         <v>8856</v>
       </c>
-      <c r="H167" s="5">
-        <v>0.55920000000000003</v>
+      <c r="H167" s="4">
+        <v>55.92</v>
       </c>
       <c r="I167" s="3">
         <v>49961</v>
@@ -6054,7 +6048,7 @@
     </row>
     <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B168" s="3">
         <v>3429</v>
@@ -6065,8 +6059,8 @@
       <c r="D168" s="3">
         <v>1631</v>
       </c>
-      <c r="E168" s="5">
-        <v>0.47560000000000002</v>
+      <c r="E168" s="4">
+        <v>47.56</v>
       </c>
       <c r="F168" s="4">
         <v>238</v>
@@ -6074,8 +6068,8 @@
       <c r="G168" s="3">
         <v>1869</v>
       </c>
-      <c r="H168" s="5">
-        <v>0.54510000000000003</v>
+      <c r="H168" s="4">
+        <v>54.51</v>
       </c>
       <c r="I168" s="3">
         <v>49089</v>
@@ -6083,7 +6077,7 @@
     </row>
     <row r="169" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B169" s="3">
         <v>4524</v>
@@ -6094,8 +6088,8 @@
       <c r="D169" s="3">
         <v>1755</v>
       </c>
-      <c r="E169" s="5">
-        <v>0.38790000000000002</v>
+      <c r="E169" s="4">
+        <v>38.79</v>
       </c>
       <c r="F169" s="4">
         <v>138</v>
@@ -6103,8 +6097,8 @@
       <c r="G169" s="3">
         <v>1893</v>
       </c>
-      <c r="H169" s="5">
-        <v>0.41839999999999999</v>
+      <c r="H169" s="4">
+        <v>41.84</v>
       </c>
       <c r="I169" s="3">
         <v>46156</v>
@@ -6112,7 +6106,7 @@
     </row>
     <row r="170" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B170" s="3">
         <v>14001</v>
@@ -6123,8 +6117,8 @@
       <c r="D170" s="3">
         <v>7476</v>
       </c>
-      <c r="E170" s="5">
-        <v>0.53400000000000003</v>
+      <c r="E170" s="4">
+        <v>53.4</v>
       </c>
       <c r="F170" s="4">
         <v>503</v>
@@ -6132,8 +6126,8 @@
       <c r="G170" s="3">
         <v>7979</v>
       </c>
-      <c r="H170" s="5">
-        <v>0.56989999999999996</v>
+      <c r="H170" s="4">
+        <v>56.99</v>
       </c>
       <c r="I170" s="3">
         <v>56012</v>
@@ -6141,7 +6135,7 @@
     </row>
     <row r="171" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B171" s="3">
         <v>370060</v>
@@ -6152,8 +6146,8 @@
       <c r="D171" s="3">
         <v>213872</v>
       </c>
-      <c r="E171" s="5">
-        <v>0.57789999999999997</v>
+      <c r="E171" s="4">
+        <v>57.79</v>
       </c>
       <c r="F171" s="3">
         <v>23019</v>
@@ -6161,8 +6155,8 @@
       <c r="G171" s="3">
         <v>236891</v>
       </c>
-      <c r="H171" s="5">
-        <v>0.6401</v>
+      <c r="H171" s="4">
+        <v>64.010000000000005</v>
       </c>
       <c r="I171" s="3">
         <v>85348</v>
@@ -6170,7 +6164,7 @@
     </row>
     <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B172" s="3">
         <v>9995</v>
@@ -6181,8 +6175,8 @@
       <c r="D172" s="3">
         <v>3433</v>
       </c>
-      <c r="E172" s="5">
-        <v>0.34350000000000003</v>
+      <c r="E172" s="4">
+        <v>34.35</v>
       </c>
       <c r="F172" s="4">
         <v>311</v>
@@ -6190,8 +6184,8 @@
       <c r="G172" s="3">
         <v>3744</v>
       </c>
-      <c r="H172" s="5">
-        <v>0.37459999999999999</v>
+      <c r="H172" s="4">
+        <v>37.46</v>
       </c>
       <c r="I172" s="3">
         <v>53341</v>
@@ -6199,7 +6193,7 @@
     </row>
     <row r="173" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B173" s="3">
         <v>8583</v>
@@ -6210,8 +6204,8 @@
       <c r="D173" s="3">
         <v>3664</v>
       </c>
-      <c r="E173" s="5">
-        <v>0.4269</v>
+      <c r="E173" s="4">
+        <v>42.69</v>
       </c>
       <c r="F173" s="4">
         <v>479</v>
@@ -6219,8 +6213,8 @@
       <c r="G173" s="3">
         <v>4143</v>
       </c>
-      <c r="H173" s="5">
-        <v>0.48270000000000002</v>
+      <c r="H173" s="4">
+        <v>48.27</v>
       </c>
       <c r="I173" s="3">
         <v>45122</v>
@@ -6228,7 +6222,7 @@
     </row>
     <row r="174" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B174" s="4">
         <v>859</v>
@@ -6239,8 +6233,8 @@
       <c r="D174" s="4">
         <v>373</v>
       </c>
-      <c r="E174" s="5">
-        <v>0.43419999999999997</v>
+      <c r="E174" s="4">
+        <v>43.42</v>
       </c>
       <c r="F174" s="4">
         <v>64</v>
@@ -6248,8 +6242,8 @@
       <c r="G174" s="4">
         <v>437</v>
       </c>
-      <c r="H174" s="5">
-        <v>0.50870000000000004</v>
+      <c r="H174" s="4">
+        <v>50.87</v>
       </c>
       <c r="I174" s="3">
         <v>46712</v>
@@ -6257,7 +6251,7 @@
     </row>
     <row r="175" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B175" s="3">
         <v>38786</v>
@@ -6268,8 +6262,8 @@
       <c r="D175" s="3">
         <v>19860</v>
       </c>
-      <c r="E175" s="5">
-        <v>0.51200000000000001</v>
+      <c r="E175" s="4">
+        <v>51.2</v>
       </c>
       <c r="F175" s="3">
         <v>2468</v>
@@ -6277,8 +6271,8 @@
       <c r="G175" s="3">
         <v>22328</v>
       </c>
-      <c r="H175" s="5">
-        <v>0.57569999999999999</v>
+      <c r="H175" s="4">
+        <v>57.57</v>
       </c>
       <c r="I175" s="3">
         <v>49375</v>
@@ -6286,7 +6280,7 @@
     </row>
     <row r="176" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B176" s="3">
         <v>29959</v>
@@ -6297,8 +6291,8 @@
       <c r="D176" s="3">
         <v>12582</v>
       </c>
-      <c r="E176" s="5">
-        <v>0.42</v>
+      <c r="E176" s="4">
+        <v>42</v>
       </c>
       <c r="F176" s="3">
         <v>1350</v>
@@ -6306,8 +6300,8 @@
       <c r="G176" s="3">
         <v>13932</v>
       </c>
-      <c r="H176" s="5">
-        <v>0.46500000000000002</v>
+      <c r="H176" s="4">
+        <v>46.5</v>
       </c>
       <c r="I176" s="3">
         <v>50778</v>
@@ -6315,7 +6309,7 @@
     </row>
     <row r="177" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B177" s="3">
         <v>9400</v>
@@ -6326,8 +6320,8 @@
       <c r="D177" s="3">
         <v>3684</v>
       </c>
-      <c r="E177" s="5">
-        <v>0.39190000000000003</v>
+      <c r="E177" s="4">
+        <v>39.19</v>
       </c>
       <c r="F177" s="4">
         <v>381</v>
@@ -6335,8 +6329,8 @@
       <c r="G177" s="3">
         <v>4065</v>
       </c>
-      <c r="H177" s="5">
-        <v>0.43240000000000001</v>
+      <c r="H177" s="4">
+        <v>43.24</v>
       </c>
       <c r="I177" s="3">
         <v>45769</v>
@@ -6344,7 +6338,7 @@
     </row>
     <row r="178" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B178" s="3">
         <v>8871</v>
@@ -6355,8 +6349,8 @@
       <c r="D178" s="3">
         <v>3125</v>
       </c>
-      <c r="E178" s="5">
-        <v>0.3523</v>
+      <c r="E178" s="4">
+        <v>35.229999999999997</v>
       </c>
       <c r="F178" s="4">
         <v>432</v>
@@ -6364,8 +6358,8 @@
       <c r="G178" s="3">
         <v>3557</v>
       </c>
-      <c r="H178" s="5">
-        <v>0.40100000000000002</v>
+      <c r="H178" s="4">
+        <v>40.1</v>
       </c>
       <c r="I178" s="3">
         <v>41720</v>
@@ -6373,7 +6367,7 @@
     </row>
     <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B179" s="3">
         <v>211652</v>
@@ -6384,8 +6378,8 @@
       <c r="D179" s="3">
         <v>95697</v>
       </c>
-      <c r="E179" s="5">
-        <v>0.4521</v>
+      <c r="E179" s="4">
+        <v>45.21</v>
       </c>
       <c r="F179" s="3">
         <v>15218</v>
@@ -6393,8 +6387,8 @@
       <c r="G179" s="3">
         <v>110915</v>
       </c>
-      <c r="H179" s="5">
-        <v>0.52400000000000002</v>
+      <c r="H179" s="4">
+        <v>52.4</v>
       </c>
       <c r="I179" s="3">
         <v>55727</v>
@@ -6402,7 +6396,7 @@
     </row>
     <row r="180" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B180" s="3">
         <v>5192</v>
@@ -6413,8 +6407,8 @@
       <c r="D180" s="3">
         <v>2046</v>
       </c>
-      <c r="E180" s="5">
-        <v>0.39410000000000001</v>
+      <c r="E180" s="4">
+        <v>39.409999999999997</v>
       </c>
       <c r="F180" s="4">
         <v>187</v>
@@ -6422,8 +6416,8 @@
       <c r="G180" s="3">
         <v>2233</v>
       </c>
-      <c r="H180" s="5">
-        <v>0.43009999999999998</v>
+      <c r="H180" s="4">
+        <v>43.01</v>
       </c>
       <c r="I180" s="3">
         <v>71477</v>
@@ -6431,7 +6425,7 @@
     </row>
     <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B181" s="3">
         <v>1425</v>
@@ -6442,8 +6436,8 @@
       <c r="D181" s="4">
         <v>571</v>
       </c>
-      <c r="E181" s="5">
-        <v>0.4007</v>
+      <c r="E181" s="4">
+        <v>40.07</v>
       </c>
       <c r="F181" s="4">
         <v>48</v>
@@ -6451,8 +6445,8 @@
       <c r="G181" s="4">
         <v>619</v>
       </c>
-      <c r="H181" s="5">
-        <v>0.43440000000000001</v>
+      <c r="H181" s="4">
+        <v>43.44</v>
       </c>
       <c r="I181" s="3">
         <v>61013</v>
@@ -6460,7 +6454,7 @@
     </row>
     <row r="182" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B182" s="3">
         <v>54442</v>
@@ -6471,8 +6465,8 @@
       <c r="D182" s="3">
         <v>28016</v>
       </c>
-      <c r="E182" s="5">
-        <v>0.51459999999999995</v>
+      <c r="E182" s="4">
+        <v>51.46</v>
       </c>
       <c r="F182" s="3">
         <v>2302</v>
@@ -6480,8 +6474,8 @@
       <c r="G182" s="3">
         <v>30318</v>
       </c>
-      <c r="H182" s="5">
-        <v>0.55689999999999995</v>
+      <c r="H182" s="4">
+        <v>55.69</v>
       </c>
       <c r="I182" s="3">
         <v>61323</v>
@@ -6489,7 +6483,7 @@
     </row>
     <row r="183" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B183" s="3">
         <v>18946</v>
@@ -6500,8 +6494,8 @@
       <c r="D183" s="3">
         <v>8509</v>
       </c>
-      <c r="E183" s="5">
-        <v>0.4491</v>
+      <c r="E183" s="4">
+        <v>44.91</v>
       </c>
       <c r="F183" s="3">
         <v>1082</v>
@@ -6509,8 +6503,8 @@
       <c r="G183" s="3">
         <v>9591</v>
       </c>
-      <c r="H183" s="5">
-        <v>0.50619999999999998</v>
+      <c r="H183" s="4">
+        <v>50.62</v>
       </c>
       <c r="I183" s="3">
         <v>59450</v>
@@ -6518,7 +6512,7 @@
     </row>
     <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B184" s="3">
         <v>16808</v>
@@ -6529,8 +6523,8 @@
       <c r="D184" s="3">
         <v>7317</v>
       </c>
-      <c r="E184" s="5">
-        <v>0.43530000000000002</v>
+      <c r="E184" s="4">
+        <v>43.53</v>
       </c>
       <c r="F184" s="4">
         <v>769</v>
@@ -6538,8 +6532,8 @@
       <c r="G184" s="3">
         <v>8086</v>
       </c>
-      <c r="H184" s="5">
-        <v>0.48110000000000003</v>
+      <c r="H184" s="4">
+        <v>48.11</v>
       </c>
       <c r="I184" s="3">
         <v>51936</v>
@@ -6547,7 +6541,7 @@
     </row>
     <row r="185" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185" s="3">
         <v>103999</v>
@@ -6558,8 +6552,8 @@
       <c r="D185" s="3">
         <v>60635</v>
       </c>
-      <c r="E185" s="5">
-        <v>0.58299999999999996</v>
+      <c r="E185" s="4">
+        <v>58.3</v>
       </c>
       <c r="F185" s="3">
         <v>4220</v>
@@ -6567,8 +6561,8 @@
       <c r="G185" s="3">
         <v>64855</v>
       </c>
-      <c r="H185" s="5">
-        <v>0.62360000000000004</v>
+      <c r="H185" s="4">
+        <v>62.36</v>
       </c>
       <c r="I185" s="3">
         <v>88617</v>
@@ -6576,7 +6570,7 @@
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B186" s="3">
         <v>4537</v>
@@ -6587,8 +6581,8 @@
       <c r="D186" s="3">
         <v>1151</v>
       </c>
-      <c r="E186" s="5">
-        <v>0.25369999999999998</v>
+      <c r="E186" s="4">
+        <v>25.37</v>
       </c>
       <c r="F186" s="4">
         <v>158</v>
@@ -6596,8 +6590,8 @@
       <c r="G186" s="3">
         <v>1309</v>
       </c>
-      <c r="H186" s="5">
-        <v>0.28849999999999998</v>
+      <c r="H186" s="4">
+        <v>28.85</v>
       </c>
       <c r="I186" s="3">
         <v>61989</v>
@@ -6605,7 +6599,7 @@
     </row>
     <row r="187" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B187" s="3">
         <v>8323</v>
@@ -6616,8 +6610,8 @@
       <c r="D187" s="3">
         <v>3486</v>
       </c>
-      <c r="E187" s="5">
-        <v>0.41880000000000001</v>
+      <c r="E187" s="4">
+        <v>41.88</v>
       </c>
       <c r="F187" s="4">
         <v>402</v>
@@ -6625,8 +6619,8 @@
       <c r="G187" s="3">
         <v>3888</v>
       </c>
-      <c r="H187" s="5">
-        <v>0.46710000000000002</v>
+      <c r="H187" s="4">
+        <v>46.71</v>
       </c>
       <c r="I187" s="3">
         <v>52792</v>
@@ -6634,7 +6628,7 @@
     </row>
     <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B188" s="3">
         <v>40520</v>
@@ -6645,8 +6639,8 @@
       <c r="D188" s="3">
         <v>14335</v>
       </c>
-      <c r="E188" s="5">
-        <v>0.3538</v>
+      <c r="E188" s="4">
+        <v>35.380000000000003</v>
       </c>
       <c r="F188" s="3">
         <v>6011</v>
@@ -6654,8 +6648,8 @@
       <c r="G188" s="3">
         <v>20346</v>
       </c>
-      <c r="H188" s="5">
-        <v>0.50209999999999999</v>
+      <c r="H188" s="4">
+        <v>50.21</v>
       </c>
       <c r="I188" s="3">
         <v>47535</v>
@@ -6663,7 +6657,7 @@
     </row>
     <row r="189" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B189" s="3">
         <v>57736</v>
@@ -6674,8 +6668,8 @@
       <c r="D189" s="3">
         <v>23231</v>
       </c>
-      <c r="E189" s="5">
-        <v>0.40239999999999998</v>
+      <c r="E189" s="4">
+        <v>40.24</v>
       </c>
       <c r="F189" s="4">
         <v>104</v>
@@ -6683,8 +6677,8 @@
       <c r="G189" s="3">
         <v>23335</v>
       </c>
-      <c r="H189" s="5">
-        <v>0.4042</v>
+      <c r="H189" s="4">
+        <v>40.42</v>
       </c>
       <c r="I189" s="3">
         <v>45903</v>
@@ -6692,7 +6686,7 @@
     </row>
     <row r="190" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B190" s="3">
         <v>4789</v>
@@ -6703,8 +6697,8 @@
       <c r="D190" s="3">
         <v>1604</v>
       </c>
-      <c r="E190" s="5">
-        <v>0.33489999999999998</v>
+      <c r="E190" s="4">
+        <v>33.49</v>
       </c>
       <c r="F190" s="4">
         <v>180</v>
@@ -6712,8 +6706,8 @@
       <c r="G190" s="3">
         <v>1784</v>
       </c>
-      <c r="H190" s="5">
-        <v>0.3725</v>
+      <c r="H190" s="4">
+        <v>37.25</v>
       </c>
       <c r="I190" s="3">
         <v>39967</v>
@@ -6721,7 +6715,7 @@
     </row>
     <row r="191" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B191" s="3">
         <v>8320</v>
@@ -6732,8 +6726,8 @@
       <c r="D191" s="3">
         <v>4547</v>
       </c>
-      <c r="E191" s="5">
-        <v>0.54649999999999999</v>
+      <c r="E191" s="4">
+        <v>54.65</v>
       </c>
       <c r="F191" s="4">
         <v>425</v>
@@ -6741,8 +6735,8 @@
       <c r="G191" s="3">
         <v>4972</v>
       </c>
-      <c r="H191" s="5">
-        <v>0.59760000000000002</v>
+      <c r="H191" s="4">
+        <v>59.76</v>
       </c>
       <c r="I191" s="3">
         <v>59195</v>
@@ -6750,7 +6744,7 @@
     </row>
     <row r="192" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B192" s="3">
         <v>93313</v>
@@ -6761,8 +6755,8 @@
       <c r="D192" s="3">
         <v>50412</v>
       </c>
-      <c r="E192" s="5">
-        <v>0.54020000000000001</v>
+      <c r="E192" s="4">
+        <v>54.02</v>
       </c>
       <c r="F192" s="3">
         <v>4980</v>
@@ -6770,8 +6764,8 @@
       <c r="G192" s="3">
         <v>55392</v>
       </c>
-      <c r="H192" s="5">
-        <v>0.59360000000000002</v>
+      <c r="H192" s="4">
+        <v>59.36</v>
       </c>
       <c r="I192" s="3">
         <v>71041</v>
@@ -6779,7 +6773,7 @@
     </row>
     <row r="193" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B193" s="3">
         <v>1879</v>
@@ -6790,8 +6784,8 @@
       <c r="D193" s="4">
         <v>861</v>
       </c>
-      <c r="E193" s="5">
-        <v>0.4582</v>
+      <c r="E193" s="4">
+        <v>45.82</v>
       </c>
       <c r="F193" s="4">
         <v>41</v>
@@ -6799,8 +6793,8 @@
       <c r="G193" s="4">
         <v>902</v>
       </c>
-      <c r="H193" s="5">
-        <v>0.48</v>
+      <c r="H193" s="4">
+        <v>48</v>
       </c>
       <c r="I193" s="3">
         <v>66711</v>
@@ -6808,7 +6802,7 @@
     </row>
     <row r="194" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B194" s="3">
         <v>2702</v>
@@ -6819,8 +6813,8 @@
       <c r="D194" s="3">
         <v>1398</v>
       </c>
-      <c r="E194" s="5">
-        <v>0.51739999999999997</v>
+      <c r="E194" s="4">
+        <v>51.74</v>
       </c>
       <c r="F194" s="4">
         <v>113</v>
@@ -6828,8 +6822,8 @@
       <c r="G194" s="3">
         <v>1511</v>
       </c>
-      <c r="H194" s="5">
-        <v>0.55920000000000003</v>
+      <c r="H194" s="4">
+        <v>55.92</v>
       </c>
       <c r="I194" s="3">
         <v>43076</v>
@@ -6837,7 +6831,7 @@
     </row>
     <row r="195" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B195" s="3">
         <v>8489</v>
@@ -6848,8 +6842,8 @@
       <c r="D195" s="3">
         <v>3837</v>
       </c>
-      <c r="E195" s="5">
-        <v>0.45200000000000001</v>
+      <c r="E195" s="4">
+        <v>45.2</v>
       </c>
       <c r="F195" s="4">
         <v>423</v>
@@ -6857,8 +6851,8 @@
       <c r="G195" s="3">
         <v>4260</v>
       </c>
-      <c r="H195" s="5">
-        <v>0.50180000000000002</v>
+      <c r="H195" s="4">
+        <v>50.18</v>
       </c>
       <c r="I195" s="3">
         <v>46727</v>
@@ -6866,7 +6860,7 @@
     </row>
     <row r="196" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B196" s="3">
         <v>7558</v>
@@ -6877,8 +6871,8 @@
       <c r="D196" s="3">
         <v>2329</v>
       </c>
-      <c r="E196" s="5">
-        <v>0.30819999999999997</v>
+      <c r="E196" s="4">
+        <v>30.82</v>
       </c>
       <c r="F196" s="4">
         <v>399</v>
@@ -6886,8 +6880,8 @@
       <c r="G196" s="3">
         <v>2728</v>
       </c>
-      <c r="H196" s="5">
-        <v>0.3609</v>
+      <c r="H196" s="4">
+        <v>36.090000000000003</v>
       </c>
       <c r="I196" s="3">
         <v>64863</v>
@@ -6895,7 +6889,7 @@
     </row>
     <row r="197" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B197" s="3">
         <v>5007</v>
@@ -6906,8 +6900,8 @@
       <c r="D197" s="3">
         <v>2253</v>
       </c>
-      <c r="E197" s="5">
-        <v>0.45</v>
+      <c r="E197" s="4">
+        <v>45</v>
       </c>
       <c r="F197" s="4">
         <v>300</v>
@@ -6915,8 +6909,8 @@
       <c r="G197" s="3">
         <v>2553</v>
       </c>
-      <c r="H197" s="5">
-        <v>0.50990000000000002</v>
+      <c r="H197" s="4">
+        <v>50.99</v>
       </c>
       <c r="I197" s="3">
         <v>48433</v>
@@ -6924,7 +6918,7 @@
     </row>
     <row r="198" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B198" s="4">
         <v>680</v>
@@ -6935,8 +6929,8 @@
       <c r="D198" s="4">
         <v>316</v>
       </c>
-      <c r="E198" s="5">
-        <v>0.4647</v>
+      <c r="E198" s="4">
+        <v>46.47</v>
       </c>
       <c r="F198" s="4">
         <v>47</v>
@@ -6944,8 +6938,8 @@
       <c r="G198" s="4">
         <v>363</v>
       </c>
-      <c r="H198" s="5">
-        <v>0.53380000000000005</v>
+      <c r="H198" s="4">
+        <v>53.38</v>
       </c>
       <c r="I198" s="3">
         <v>69927</v>
@@ -6953,7 +6947,7 @@
     </row>
     <row r="199" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B199" s="3">
         <v>11844</v>
@@ -6964,8 +6958,8 @@
       <c r="D199" s="3">
         <v>5895</v>
       </c>
-      <c r="E199" s="5">
-        <v>0.49769999999999998</v>
+      <c r="E199" s="4">
+        <v>49.77</v>
       </c>
       <c r="F199" s="4">
         <v>622</v>
@@ -6973,8 +6967,8 @@
       <c r="G199" s="3">
         <v>6517</v>
       </c>
-      <c r="H199" s="5">
-        <v>0.55020000000000002</v>
+      <c r="H199" s="4">
+        <v>55.02</v>
       </c>
       <c r="I199" s="3">
         <v>55218</v>
@@ -6982,7 +6976,7 @@
     </row>
     <row r="200" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B200" s="3">
         <v>71102</v>
@@ -6993,8 +6987,8 @@
       <c r="D200" s="3">
         <v>44449</v>
       </c>
-      <c r="E200" s="5">
-        <v>0.62509999999999999</v>
+      <c r="E200" s="4">
+        <v>62.51</v>
       </c>
       <c r="F200" s="3">
         <v>3526</v>
@@ -7002,8 +6996,8 @@
       <c r="G200" s="3">
         <v>47975</v>
       </c>
-      <c r="H200" s="5">
-        <v>0.67469999999999997</v>
+      <c r="H200" s="4">
+        <v>67.47</v>
       </c>
       <c r="I200" s="3">
         <v>106225</v>
@@ -7011,7 +7005,7 @@
     </row>
     <row r="201" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B201" s="3">
         <v>7025</v>
@@ -7022,8 +7016,8 @@
       <c r="D201" s="3">
         <v>2626</v>
       </c>
-      <c r="E201" s="5">
-        <v>0.37380000000000002</v>
+      <c r="E201" s="4">
+        <v>37.380000000000003</v>
       </c>
       <c r="F201" s="4">
         <v>322</v>
@@ -7031,8 +7025,8 @@
       <c r="G201" s="3">
         <v>2948</v>
       </c>
-      <c r="H201" s="5">
-        <v>0.41959999999999997</v>
+      <c r="H201" s="4">
+        <v>41.96</v>
       </c>
       <c r="I201" s="3">
         <v>50972</v>
@@ -7040,7 +7034,7 @@
     </row>
     <row r="202" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B202" s="3">
         <v>32388</v>
@@ -7051,8 +7045,8 @@
       <c r="D202" s="3">
         <v>14280</v>
       </c>
-      <c r="E202" s="5">
-        <v>0.44090000000000001</v>
+      <c r="E202" s="4">
+        <v>44.09</v>
       </c>
       <c r="F202" s="3">
         <v>1670</v>
@@ -7060,8 +7054,8 @@
       <c r="G202" s="3">
         <v>15950</v>
       </c>
-      <c r="H202" s="5">
-        <v>0.49249999999999999</v>
+      <c r="H202" s="4">
+        <v>49.25</v>
       </c>
       <c r="I202" s="3">
         <v>56954</v>
@@ -7069,7 +7063,7 @@
     </row>
     <row r="203" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B203" s="3">
         <v>8050</v>
@@ -7080,8 +7074,8 @@
       <c r="D203" s="3">
         <v>3892</v>
       </c>
-      <c r="E203" s="5">
-        <v>0.48349999999999999</v>
+      <c r="E203" s="4">
+        <v>48.35</v>
       </c>
       <c r="F203" s="4">
         <v>405</v>
@@ -7089,8 +7083,8 @@
       <c r="G203" s="3">
         <v>4297</v>
       </c>
-      <c r="H203" s="5">
-        <v>0.53380000000000005</v>
+      <c r="H203" s="4">
+        <v>53.38</v>
       </c>
       <c r="I203" s="3">
         <v>51046</v>
@@ -7098,7 +7092,7 @@
     </row>
     <row r="204" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B204" s="3">
         <v>6108</v>
@@ -7109,8 +7103,8 @@
       <c r="D204" s="3">
         <v>2596</v>
       </c>
-      <c r="E204" s="5">
-        <v>0.42499999999999999</v>
+      <c r="E204" s="4">
+        <v>42.5</v>
       </c>
       <c r="F204" s="4">
         <v>326</v>
@@ -7118,8 +7112,8 @@
       <c r="G204" s="3">
         <v>2922</v>
       </c>
-      <c r="H204" s="5">
-        <v>0.47839999999999999</v>
+      <c r="H204" s="4">
+        <v>47.84</v>
       </c>
       <c r="I204" s="3">
         <v>45781</v>
@@ -7127,7 +7121,7 @@
     </row>
     <row r="205" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B205" s="3">
         <v>18969</v>
@@ -7138,8 +7132,8 @@
       <c r="D205" s="3">
         <v>9331</v>
       </c>
-      <c r="E205" s="5">
-        <v>0.4919</v>
+      <c r="E205" s="4">
+        <v>49.19</v>
       </c>
       <c r="F205" s="4">
         <v>968</v>
@@ -7147,8 +7141,8 @@
       <c r="G205" s="3">
         <v>10299</v>
       </c>
-      <c r="H205" s="5">
-        <v>0.54290000000000005</v>
+      <c r="H205" s="4">
+        <v>54.29</v>
       </c>
       <c r="I205" s="3">
         <v>51575</v>
@@ -7156,7 +7150,7 @@
     </row>
     <row r="206" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B206" s="3">
         <v>43248</v>
@@ -7167,8 +7161,8 @@
       <c r="D206" s="3">
         <v>19241</v>
       </c>
-      <c r="E206" s="5">
-        <v>0.44490000000000002</v>
+      <c r="E206" s="4">
+        <v>44.49</v>
       </c>
       <c r="F206" s="3">
         <v>2531</v>
@@ -7176,8 +7170,8 @@
       <c r="G206" s="3">
         <v>21772</v>
       </c>
-      <c r="H206" s="5">
-        <v>0.50339999999999996</v>
+      <c r="H206" s="4">
+        <v>50.34</v>
       </c>
       <c r="I206" s="3">
         <v>56944</v>
@@ -7185,7 +7179,7 @@
     </row>
     <row r="207" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B207" s="3">
         <v>3776</v>
@@ -7196,8 +7190,8 @@
       <c r="D207" s="3">
         <v>1697</v>
       </c>
-      <c r="E207" s="5">
-        <v>0.44940000000000002</v>
+      <c r="E207" s="4">
+        <v>44.94</v>
       </c>
       <c r="F207" s="4">
         <v>156</v>
@@ -7205,8 +7199,8 @@
       <c r="G207" s="3">
         <v>1853</v>
       </c>
-      <c r="H207" s="5">
-        <v>0.49070000000000003</v>
+      <c r="H207" s="4">
+        <v>49.07</v>
       </c>
       <c r="I207" s="3">
         <v>48349</v>
@@ -7214,7 +7208,7 @@
     </row>
     <row r="208" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B208" s="3">
         <v>1709</v>
@@ -7225,8 +7219,8 @@
       <c r="D208" s="4">
         <v>793</v>
       </c>
-      <c r="E208" s="5">
-        <v>0.46400000000000002</v>
+      <c r="E208" s="4">
+        <v>46.4</v>
       </c>
       <c r="F208" s="4">
         <v>110</v>
@@ -7234,8 +7228,8 @@
       <c r="G208" s="4">
         <v>903</v>
       </c>
-      <c r="H208" s="5">
-        <v>0.52839999999999998</v>
+      <c r="H208" s="4">
+        <v>52.84</v>
       </c>
       <c r="I208" s="3">
         <v>54471</v>
@@ -7243,7 +7237,7 @@
     </row>
     <row r="209" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B209" s="3">
         <v>9489</v>
@@ -7254,8 +7248,8 @@
       <c r="D209" s="3">
         <v>4255</v>
       </c>
-      <c r="E209" s="5">
-        <v>0.44840000000000002</v>
+      <c r="E209" s="4">
+        <v>44.84</v>
       </c>
       <c r="F209" s="4">
         <v>361</v>
@@ -7263,8 +7257,8 @@
       <c r="G209" s="3">
         <v>4616</v>
       </c>
-      <c r="H209" s="5">
-        <v>0.48649999999999999</v>
+      <c r="H209" s="4">
+        <v>48.65</v>
       </c>
       <c r="I209" s="3">
         <v>57158</v>
@@ -7272,7 +7266,7 @@
     </row>
     <row r="210" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B210" s="3">
         <v>2320</v>
@@ -7283,8 +7277,8 @@
       <c r="D210" s="3">
         <v>1107</v>
       </c>
-      <c r="E210" s="5">
-        <v>0.47720000000000001</v>
+      <c r="E210" s="4">
+        <v>47.72</v>
       </c>
       <c r="F210" s="4">
         <v>134</v>
@@ -7292,8 +7286,8 @@
       <c r="G210" s="3">
         <v>1241</v>
       </c>
-      <c r="H210" s="5">
-        <v>0.53490000000000004</v>
+      <c r="H210" s="4">
+        <v>53.49</v>
       </c>
       <c r="I210" s="3">
         <v>64931</v>
@@ -7301,7 +7295,7 @@
     </row>
     <row r="211" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B211" s="3">
         <v>15570</v>
@@ -7312,8 +7306,8 @@
       <c r="D211" s="3">
         <v>6253</v>
       </c>
-      <c r="E211" s="5">
-        <v>0.40160000000000001</v>
+      <c r="E211" s="4">
+        <v>40.159999999999997</v>
       </c>
       <c r="F211" s="4">
         <v>674</v>
@@ -7321,8 +7315,8 @@
       <c r="G211" s="3">
         <v>6927</v>
       </c>
-      <c r="H211" s="5">
-        <v>0.44490000000000002</v>
+      <c r="H211" s="4">
+        <v>44.49</v>
       </c>
       <c r="I211" s="3">
         <v>41194</v>
@@ -7330,7 +7324,7 @@
     </row>
     <row r="212" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B212" s="3">
         <v>1520</v>
@@ -7341,8 +7335,8 @@
       <c r="D212" s="4">
         <v>624</v>
       </c>
-      <c r="E212" s="5">
-        <v>0.41049999999999998</v>
+      <c r="E212" s="4">
+        <v>41.05</v>
       </c>
       <c r="F212" s="4">
         <v>63</v>
@@ -7350,8 +7344,8 @@
       <c r="G212" s="4">
         <v>687</v>
       </c>
-      <c r="H212" s="5">
-        <v>0.45200000000000001</v>
+      <c r="H212" s="4">
+        <v>45.2</v>
       </c>
       <c r="I212" s="3">
         <v>66408</v>
@@ -7359,7 +7353,7 @@
     </row>
     <row r="213" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B213" s="3">
         <v>146149</v>
@@ -7370,8 +7364,8 @@
       <c r="D213" s="3">
         <v>78798</v>
       </c>
-      <c r="E213" s="5">
-        <v>0.53920000000000001</v>
+      <c r="E213" s="4">
+        <v>53.92</v>
       </c>
       <c r="F213" s="3">
         <v>8038</v>
@@ -7379,8 +7373,8 @@
       <c r="G213" s="3">
         <v>86836</v>
       </c>
-      <c r="H213" s="5">
-        <v>0.59419999999999995</v>
+      <c r="H213" s="4">
+        <v>59.42</v>
       </c>
       <c r="I213" s="3">
         <v>60735</v>
@@ -7388,7 +7382,7 @@
     </row>
     <row r="214" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B214" s="3">
         <v>6712</v>
@@ -7399,8 +7393,8 @@
       <c r="D214" s="3">
         <v>4001</v>
       </c>
-      <c r="E214" s="5">
-        <v>0.59609999999999996</v>
+      <c r="E214" s="4">
+        <v>59.61</v>
       </c>
       <c r="F214" s="4">
         <v>231</v>
@@ -7408,8 +7402,8 @@
       <c r="G214" s="3">
         <v>4232</v>
       </c>
-      <c r="H214" s="5">
-        <v>0.63049999999999995</v>
+      <c r="H214" s="4">
+        <v>63.05</v>
       </c>
       <c r="I214" s="3">
         <v>67984</v>
@@ -7417,7 +7411,7 @@
     </row>
     <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B215" s="3">
         <v>34050</v>
@@ -7428,8 +7422,8 @@
       <c r="D215" s="3">
         <v>12463</v>
       </c>
-      <c r="E215" s="5">
-        <v>0.36599999999999999</v>
+      <c r="E215" s="4">
+        <v>36.6</v>
       </c>
       <c r="F215" s="3">
         <v>1133</v>
@@ -7437,8 +7431,8 @@
       <c r="G215" s="3">
         <v>13596</v>
       </c>
-      <c r="H215" s="5">
-        <v>0.39929999999999999</v>
+      <c r="H215" s="4">
+        <v>39.93</v>
       </c>
       <c r="I215" s="3">
         <v>35716</v>
@@ -7446,7 +7440,7 @@
     </row>
     <row r="216" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B216" s="3">
         <v>5672</v>
@@ -7457,8 +7451,8 @@
       <c r="D216" s="3">
         <v>2720</v>
       </c>
-      <c r="E216" s="5">
-        <v>0.47949999999999998</v>
+      <c r="E216" s="4">
+        <v>47.95</v>
       </c>
       <c r="F216" s="4">
         <v>282</v>
@@ -7466,8 +7460,8 @@
       <c r="G216" s="3">
         <v>3002</v>
       </c>
-      <c r="H216" s="5">
-        <v>0.52929999999999999</v>
+      <c r="H216" s="4">
+        <v>52.93</v>
       </c>
       <c r="I216" s="3">
         <v>48911</v>
@@ -7475,7 +7469,7 @@
     </row>
     <row r="217" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B217" s="4">
         <v>939</v>
@@ -7486,8 +7480,8 @@
       <c r="D217" s="4">
         <v>443</v>
       </c>
-      <c r="E217" s="5">
-        <v>0.4718</v>
+      <c r="E217" s="4">
+        <v>47.18</v>
       </c>
       <c r="F217" s="4">
         <v>34</v>
@@ -7495,8 +7489,8 @@
       <c r="G217" s="4">
         <v>477</v>
       </c>
-      <c r="H217" s="5">
-        <v>0.50800000000000001</v>
+      <c r="H217" s="4">
+        <v>50.8</v>
       </c>
       <c r="I217" s="3">
         <v>68435</v>
@@ -7504,7 +7498,7 @@
     </row>
     <row r="218" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B218" s="4">
         <v>953</v>
@@ -7515,8 +7509,8 @@
       <c r="D218" s="4">
         <v>483</v>
       </c>
-      <c r="E218" s="5">
-        <v>0.50680000000000003</v>
+      <c r="E218" s="4">
+        <v>50.68</v>
       </c>
       <c r="F218" s="4">
         <v>58</v>
@@ -7524,8 +7518,8 @@
       <c r="G218" s="4">
         <v>541</v>
       </c>
-      <c r="H218" s="5">
-        <v>0.56769999999999998</v>
+      <c r="H218" s="4">
+        <v>56.77</v>
       </c>
       <c r="I218" s="3">
         <v>59802</v>
@@ -7533,7 +7527,7 @@
     </row>
     <row r="219" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>2449</v>
@@ -7544,8 +7538,8 @@
       <c r="D219" s="3">
         <v>1251</v>
       </c>
-      <c r="E219" s="5">
-        <v>0.51080000000000003</v>
+      <c r="E219" s="4">
+        <v>51.08</v>
       </c>
       <c r="F219" s="4">
         <v>81</v>
@@ -7553,8 +7547,8 @@
       <c r="G219" s="3">
         <v>1332</v>
       </c>
-      <c r="H219" s="5">
-        <v>0.54390000000000005</v>
+      <c r="H219" s="4">
+        <v>54.39</v>
       </c>
       <c r="I219" s="3">
         <v>64612</v>
@@ -7562,7 +7556,7 @@
     </row>
     <row r="220" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B220" s="3">
         <v>3941</v>
@@ -7573,8 +7567,8 @@
       <c r="D220" s="3">
         <v>1429</v>
       </c>
-      <c r="E220" s="5">
-        <v>0.36259999999999998</v>
+      <c r="E220" s="4">
+        <v>36.26</v>
       </c>
       <c r="F220" s="4">
         <v>312</v>
@@ -7582,8 +7576,8 @@
       <c r="G220" s="3">
         <v>1741</v>
       </c>
-      <c r="H220" s="5">
-        <v>0.44180000000000003</v>
+      <c r="H220" s="4">
+        <v>44.18</v>
       </c>
       <c r="I220" s="3">
         <v>39897</v>
@@ -7591,7 +7585,7 @@
     </row>
     <row r="221" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B221" s="3">
         <v>1212524</v>
@@ -7602,8 +7596,8 @@
       <c r="D221" s="3">
         <v>666581</v>
       </c>
-      <c r="E221" s="5">
-        <v>0.54969999999999997</v>
+      <c r="E221" s="4">
+        <v>54.97</v>
       </c>
       <c r="F221" s="3">
         <v>62976</v>
@@ -7611,8 +7605,8 @@
       <c r="G221" s="3">
         <v>729557</v>
       </c>
-      <c r="H221" s="5">
-        <v>0.60170000000000001</v>
+      <c r="H221" s="4">
+        <v>60.17</v>
       </c>
       <c r="I221" s="3">
         <v>72064</v>
@@ -7620,7 +7614,7 @@
     </row>
     <row r="222" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B222" s="3">
         <v>83696</v>
@@ -7631,8 +7625,8 @@
       <c r="D222" s="3">
         <v>40245</v>
       </c>
-      <c r="E222" s="5">
-        <v>0.48080000000000001</v>
+      <c r="E222" s="4">
+        <v>48.08</v>
       </c>
       <c r="F222" s="3">
         <v>5265</v>
@@ -7640,8 +7634,8 @@
       <c r="G222" s="3">
         <v>45510</v>
       </c>
-      <c r="H222" s="5">
-        <v>0.54379999999999995</v>
+      <c r="H222" s="4">
+        <v>54.38</v>
       </c>
       <c r="I222" s="3">
         <v>52974</v>
@@ -7649,7 +7643,7 @@
     </row>
     <row r="223" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B223" s="4">
         <v>673</v>
@@ -7660,8 +7654,8 @@
       <c r="D223" s="4">
         <v>288</v>
       </c>
-      <c r="E223" s="5">
-        <v>0.4279</v>
+      <c r="E223" s="4">
+        <v>42.79</v>
       </c>
       <c r="F223" s="4">
         <v>76</v>
@@ -7669,8 +7663,8 @@
       <c r="G223" s="4">
         <v>364</v>
       </c>
-      <c r="H223" s="5">
-        <v>0.54090000000000005</v>
+      <c r="H223" s="4">
+        <v>54.09</v>
       </c>
       <c r="I223" s="3">
         <v>42849</v>
@@ -7678,7 +7672,7 @@
     </row>
     <row r="224" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B224" s="3">
         <v>6589</v>
@@ -7689,8 +7683,8 @@
       <c r="D224" s="3">
         <v>2633</v>
       </c>
-      <c r="E224" s="5">
-        <v>0.39960000000000001</v>
+      <c r="E224" s="4">
+        <v>39.96</v>
       </c>
       <c r="F224" s="4">
         <v>246</v>
@@ -7698,8 +7692,8 @@
       <c r="G224" s="3">
         <v>2879</v>
       </c>
-      <c r="H224" s="5">
-        <v>0.43690000000000001</v>
+      <c r="H224" s="4">
+        <v>43.69</v>
       </c>
       <c r="I224" s="3">
         <v>47292</v>
@@ -7707,7 +7701,7 @@
     </row>
     <row r="225" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B225" s="3">
         <v>1216</v>
@@ -7718,8 +7712,8 @@
       <c r="D225" s="4">
         <v>471</v>
       </c>
-      <c r="E225" s="5">
-        <v>0.38729999999999998</v>
+      <c r="E225" s="4">
+        <v>38.729999999999997</v>
       </c>
       <c r="F225" s="4">
         <v>62</v>
@@ -7727,8 +7721,8 @@
       <c r="G225" s="4">
         <v>533</v>
       </c>
-      <c r="H225" s="5">
-        <v>0.43830000000000002</v>
+      <c r="H225" s="4">
+        <v>43.83</v>
       </c>
       <c r="I225" s="3">
         <v>46820</v>
@@ -7736,7 +7730,7 @@
     </row>
     <row r="226" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B226" s="3">
         <v>17666</v>
@@ -7747,8 +7741,8 @@
       <c r="D226" s="3">
         <v>7473</v>
       </c>
-      <c r="E226" s="5">
-        <v>0.42299999999999999</v>
+      <c r="E226" s="4">
+        <v>42.3</v>
       </c>
       <c r="F226" s="4">
         <v>732</v>
@@ -7756,8 +7750,8 @@
       <c r="G226" s="3">
         <v>8205</v>
       </c>
-      <c r="H226" s="5">
-        <v>0.46450000000000002</v>
+      <c r="H226" s="4">
+        <v>46.45</v>
       </c>
       <c r="I226" s="3">
         <v>52973</v>
@@ -7765,7 +7759,7 @@
     </row>
     <row r="227" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B227" s="3">
         <v>70086</v>
@@ -7776,8 +7770,8 @@
       <c r="D227" s="3">
         <v>27743</v>
       </c>
-      <c r="E227" s="5">
-        <v>0.39579999999999999</v>
+      <c r="E227" s="4">
+        <v>39.58</v>
       </c>
       <c r="F227" s="3">
         <v>5721</v>
@@ -7785,8 +7779,8 @@
       <c r="G227" s="3">
         <v>33464</v>
       </c>
-      <c r="H227" s="5">
-        <v>0.47749999999999998</v>
+      <c r="H227" s="4">
+        <v>47.75</v>
       </c>
       <c r="I227" s="3">
         <v>55990</v>
@@ -7794,7 +7788,7 @@
     </row>
     <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B228" s="3">
         <v>854577</v>
@@ -7805,8 +7799,8 @@
       <c r="D228" s="3">
         <v>486702</v>
       </c>
-      <c r="E228" s="5">
-        <v>0.56950000000000001</v>
+      <c r="E228" s="4">
+        <v>56.95</v>
       </c>
       <c r="F228" s="3">
         <v>62319</v>
@@ -7814,8 +7808,8 @@
       <c r="G228" s="3">
         <v>549021</v>
       </c>
-      <c r="H228" s="5">
-        <v>0.64239999999999997</v>
+      <c r="H228" s="4">
+        <v>64.239999999999995</v>
       </c>
       <c r="I228" s="3">
         <v>82605</v>
@@ -7823,7 +7817,7 @@
     </row>
     <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B229" s="3">
         <v>11541</v>
@@ -7834,8 +7828,8 @@
       <c r="D229" s="3">
         <v>4963</v>
       </c>
-      <c r="E229" s="5">
-        <v>0.43</v>
+      <c r="E229" s="4">
+        <v>43</v>
       </c>
       <c r="F229" s="4">
         <v>390</v>
@@ -7843,8 +7837,8 @@
       <c r="G229" s="3">
         <v>5353</v>
       </c>
-      <c r="H229" s="5">
-        <v>0.46379999999999999</v>
+      <c r="H229" s="4">
+        <v>46.38</v>
       </c>
       <c r="I229" s="3">
         <v>47685</v>
@@ -7852,7 +7846,7 @@
     </row>
     <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B230" s="3">
         <v>14556</v>
@@ -7863,8 +7857,8 @@
       <c r="D230" s="3">
         <v>5903</v>
       </c>
-      <c r="E230" s="5">
-        <v>0.40550000000000003</v>
+      <c r="E230" s="4">
+        <v>40.549999999999997</v>
       </c>
       <c r="F230" s="4">
         <v>809</v>
@@ -7872,8 +7866,8 @@
       <c r="G230" s="3">
         <v>6712</v>
       </c>
-      <c r="H230" s="5">
-        <v>0.46110000000000001</v>
+      <c r="H230" s="4">
+        <v>46.11</v>
       </c>
       <c r="I230" s="3">
         <v>48809</v>
@@ -7881,7 +7875,7 @@
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B231" s="3">
         <v>28619</v>
@@ -7892,8 +7886,8 @@
       <c r="D231" s="3">
         <v>13791</v>
       </c>
-      <c r="E231" s="5">
-        <v>0.4819</v>
+      <c r="E231" s="4">
+        <v>48.19</v>
       </c>
       <c r="F231" s="3">
         <v>1438</v>
@@ -7901,8 +7895,8 @@
       <c r="G231" s="3">
         <v>15229</v>
       </c>
-      <c r="H231" s="5">
-        <v>0.53210000000000002</v>
+      <c r="H231" s="4">
+        <v>53.21</v>
       </c>
       <c r="I231" s="3">
         <v>58231</v>
@@ -7910,7 +7904,7 @@
     </row>
     <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B232" s="3">
         <v>2207</v>
@@ -7921,8 +7915,8 @@
       <c r="D232" s="4">
         <v>993</v>
       </c>
-      <c r="E232" s="5">
-        <v>0.44990000000000002</v>
+      <c r="E232" s="4">
+        <v>44.99</v>
       </c>
       <c r="F232" s="4">
         <v>59</v>
@@ -7930,8 +7924,8 @@
       <c r="G232" s="3">
         <v>1052</v>
       </c>
-      <c r="H232" s="5">
-        <v>0.47670000000000001</v>
+      <c r="H232" s="4">
+        <v>47.67</v>
       </c>
       <c r="I232" s="3">
         <v>59593</v>
@@ -7939,7 +7933,7 @@
     </row>
     <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B233" s="3">
         <v>17420</v>
@@ -7950,8 +7944,8 @@
       <c r="D233" s="3">
         <v>7090</v>
       </c>
-      <c r="E233" s="5">
-        <v>0.40699999999999997</v>
+      <c r="E233" s="4">
+        <v>40.700000000000003</v>
       </c>
       <c r="F233" s="3">
         <v>1119</v>
@@ -7959,8 +7953,8 @@
       <c r="G233" s="3">
         <v>8209</v>
       </c>
-      <c r="H233" s="5">
-        <v>0.47120000000000001</v>
+      <c r="H233" s="4">
+        <v>47.12</v>
       </c>
       <c r="I233" s="3">
         <v>49275</v>
@@ -7968,7 +7962,7 @@
     </row>
     <row r="234" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B234" s="3">
         <v>28927</v>
@@ -7979,8 +7973,8 @@
       <c r="D234" s="3">
         <v>10577</v>
       </c>
-      <c r="E234" s="5">
-        <v>0.36559999999999998</v>
+      <c r="E234" s="4">
+        <v>36.56</v>
       </c>
       <c r="F234" s="3">
         <v>1691</v>
@@ -7988,8 +7982,8 @@
       <c r="G234" s="3">
         <v>12268</v>
       </c>
-      <c r="H234" s="5">
-        <v>0.42409999999999998</v>
+      <c r="H234" s="4">
+        <v>42.41</v>
       </c>
       <c r="I234" s="3">
         <v>54346</v>
@@ -7997,7 +7991,7 @@
     </row>
     <row r="235" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B235" s="3">
         <v>38965</v>
@@ -8008,8 +8002,8 @@
       <c r="D235" s="3">
         <v>15536</v>
       </c>
-      <c r="E235" s="5">
-        <v>0.3987</v>
+      <c r="E235" s="4">
+        <v>39.869999999999997</v>
       </c>
       <c r="F235" s="3">
         <v>1766</v>
@@ -8017,8 +8011,8 @@
       <c r="G235" s="3">
         <v>17302</v>
       </c>
-      <c r="H235" s="5">
-        <v>0.44400000000000001</v>
+      <c r="H235" s="4">
+        <v>44.4</v>
       </c>
       <c r="I235" s="3">
         <v>57891</v>
@@ -8026,7 +8020,7 @@
     </row>
     <row r="236" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B236" s="3">
         <v>56612</v>
@@ -8037,8 +8031,8 @@
       <c r="D236" s="3">
         <v>24844</v>
       </c>
-      <c r="E236" s="5">
-        <v>0.43880000000000002</v>
+      <c r="E236" s="4">
+        <v>43.88</v>
       </c>
       <c r="F236" s="3">
         <v>4432</v>
@@ -8046,8 +8040,8 @@
       <c r="G236" s="3">
         <v>29276</v>
       </c>
-      <c r="H236" s="5">
-        <v>0.5171</v>
+      <c r="H236" s="4">
+        <v>51.71</v>
       </c>
       <c r="I236" s="3">
         <v>53583</v>
@@ -8055,7 +8049,7 @@
     </row>
     <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B237" s="3">
         <v>35038</v>
@@ -8066,8 +8060,8 @@
       <c r="D237" s="3">
         <v>17529</v>
       </c>
-      <c r="E237" s="5">
-        <v>0.50029999999999997</v>
+      <c r="E237" s="4">
+        <v>50.03</v>
       </c>
       <c r="F237" s="3">
         <v>1863</v>
@@ -8075,8 +8069,8 @@
       <c r="G237" s="3">
         <v>19392</v>
       </c>
-      <c r="H237" s="5">
-        <v>0.55349999999999999</v>
+      <c r="H237" s="4">
+        <v>55.35</v>
       </c>
       <c r="I237" s="3">
         <v>43002</v>
@@ -8084,7 +8078,7 @@
     </row>
     <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B238" s="3">
         <v>35116</v>
@@ -8095,8 +8089,8 @@
       <c r="D238" s="3">
         <v>17702</v>
       </c>
-      <c r="E238" s="5">
-        <v>0.50409999999999999</v>
+      <c r="E238" s="4">
+        <v>50.41</v>
       </c>
       <c r="F238" s="3">
         <v>1276</v>
@@ -8104,8 +8098,8 @@
       <c r="G238" s="3">
         <v>18978</v>
       </c>
-      <c r="H238" s="5">
-        <v>0.54039999999999999</v>
+      <c r="H238" s="4">
+        <v>54.04</v>
       </c>
       <c r="I238" s="3">
         <v>69460</v>
@@ -8113,7 +8107,7 @@
     </row>
     <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B239" s="3">
         <v>6880</v>
@@ -8124,8 +8118,8 @@
       <c r="D239" s="3">
         <v>2819</v>
       </c>
-      <c r="E239" s="5">
-        <v>0.40970000000000001</v>
+      <c r="E239" s="4">
+        <v>40.97</v>
       </c>
       <c r="F239" s="4">
         <v>277</v>
@@ -8133,8 +8127,8 @@
       <c r="G239" s="3">
         <v>3096</v>
       </c>
-      <c r="H239" s="5">
-        <v>0.45</v>
+      <c r="H239" s="4">
+        <v>45</v>
       </c>
       <c r="I239" s="3">
         <v>57257</v>
@@ -8142,7 +8136,7 @@
     </row>
     <row r="240" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B240" s="3">
         <v>23947</v>
@@ -8153,8 +8147,8 @@
       <c r="D240" s="3">
         <v>12786</v>
       </c>
-      <c r="E240" s="5">
-        <v>0.53390000000000004</v>
+      <c r="E240" s="4">
+        <v>53.39</v>
       </c>
       <c r="F240" s="3">
         <v>1655</v>
@@ -8162,8 +8156,8 @@
       <c r="G240" s="3">
         <v>14441</v>
       </c>
-      <c r="H240" s="5">
-        <v>0.60299999999999998</v>
+      <c r="H240" s="4">
+        <v>60.3</v>
       </c>
       <c r="I240" s="3">
         <v>62667</v>
@@ -8171,7 +8165,7 @@
     </row>
     <row r="241" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B241" s="3">
         <v>137840</v>
@@ -8182,8 +8176,8 @@
       <c r="D241" s="3">
         <v>47260</v>
       </c>
-      <c r="E241" s="5">
-        <v>0.34289999999999998</v>
+      <c r="E241" s="4">
+        <v>34.29</v>
       </c>
       <c r="F241" s="3">
         <v>3586</v>
@@ -8191,8 +8185,8 @@
       <c r="G241" s="3">
         <v>50846</v>
       </c>
-      <c r="H241" s="5">
-        <v>0.36890000000000001</v>
+      <c r="H241" s="4">
+        <v>36.89</v>
       </c>
       <c r="I241" s="3">
         <v>56588</v>
@@ -8200,7 +8194,7 @@
     </row>
     <row r="242" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B242" s="3">
         <v>25697</v>
@@ -8211,8 +8205,8 @@
       <c r="D242" s="3">
         <v>13176</v>
       </c>
-      <c r="E242" s="5">
-        <v>0.51270000000000004</v>
+      <c r="E242" s="4">
+        <v>51.27</v>
       </c>
       <c r="F242" s="3">
         <v>1291</v>
@@ -8220,8 +8214,8 @@
       <c r="G242" s="3">
         <v>14467</v>
       </c>
-      <c r="H242" s="5">
-        <v>0.56299999999999994</v>
+      <c r="H242" s="4">
+        <v>56.3</v>
       </c>
       <c r="I242" s="3">
         <v>55887</v>
@@ -8229,7 +8223,7 @@
     </row>
     <row r="243" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B243" s="3">
         <v>3514</v>
@@ -8240,8 +8234,8 @@
       <c r="D243" s="3">
         <v>1514</v>
       </c>
-      <c r="E243" s="5">
-        <v>0.43080000000000002</v>
+      <c r="E243" s="4">
+        <v>43.08</v>
       </c>
       <c r="F243" s="4">
         <v>121</v>
@@ -8249,8 +8243,8 @@
       <c r="G243" s="3">
         <v>1635</v>
       </c>
-      <c r="H243" s="5">
-        <v>0.46529999999999999</v>
+      <c r="H243" s="4">
+        <v>46.53</v>
       </c>
       <c r="I243" s="3">
         <v>49838</v>
@@ -8258,7 +8252,7 @@
     </row>
     <row r="244" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B244" s="3">
         <v>83575</v>
@@ -8269,8 +8263,8 @@
       <c r="D244" s="3">
         <v>32151</v>
       </c>
-      <c r="E244" s="5">
-        <v>0.38469999999999999</v>
+      <c r="E244" s="4">
+        <v>38.47</v>
       </c>
       <c r="F244" s="3">
         <v>2691</v>
@@ -8278,8 +8272,8 @@
       <c r="G244" s="3">
         <v>34842</v>
       </c>
-      <c r="H244" s="5">
-        <v>0.41689999999999999</v>
+      <c r="H244" s="4">
+        <v>41.69</v>
       </c>
       <c r="I244" s="3">
         <v>54659</v>
@@ -8287,7 +8281,7 @@
     </row>
     <row r="245" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B245" s="3">
         <v>8196</v>
@@ -8298,8 +8292,8 @@
       <c r="D245" s="3">
         <v>3302</v>
       </c>
-      <c r="E245" s="5">
-        <v>0.40289999999999998</v>
+      <c r="E245" s="4">
+        <v>40.29</v>
       </c>
       <c r="F245" s="4">
         <v>470</v>
@@ -8307,8 +8301,8 @@
       <c r="G245" s="3">
         <v>3772</v>
       </c>
-      <c r="H245" s="5">
-        <v>0.4602</v>
+      <c r="H245" s="4">
+        <v>46.02</v>
       </c>
       <c r="I245" s="3">
         <v>51774</v>
@@ -8316,7 +8310,7 @@
     </row>
     <row r="246" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B246" s="3">
         <v>12804</v>
@@ -8327,8 +8321,8 @@
       <c r="D246" s="3">
         <v>3216</v>
       </c>
-      <c r="E246" s="5">
-        <v>0.25119999999999998</v>
+      <c r="E246" s="4">
+        <v>25.12</v>
       </c>
       <c r="F246" s="4">
         <v>377</v>
@@ -8336,8 +8330,8 @@
       <c r="G246" s="3">
         <v>3593</v>
       </c>
-      <c r="H246" s="5">
-        <v>0.28060000000000002</v>
+      <c r="H246" s="4">
+        <v>28.06</v>
       </c>
       <c r="I246" s="3">
         <v>40190</v>
@@ -8345,7 +8339,7 @@
     </row>
     <row r="247" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B247" s="3">
         <v>376672</v>
@@ -8356,8 +8350,8 @@
       <c r="D247" s="3">
         <v>234440</v>
       </c>
-      <c r="E247" s="5">
-        <v>0.62239999999999995</v>
+      <c r="E247" s="4">
+        <v>62.24</v>
       </c>
       <c r="F247" s="3">
         <v>25082</v>
@@ -8365,8 +8359,8 @@
       <c r="G247" s="3">
         <v>259522</v>
       </c>
-      <c r="H247" s="5">
-        <v>0.68899999999999995</v>
+      <c r="H247" s="4">
+        <v>68.900000000000006</v>
       </c>
       <c r="I247" s="3">
         <v>91507</v>
@@ -8374,7 +8368,7 @@
     </row>
     <row r="248" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B248" s="3">
         <v>35036</v>
@@ -8385,8 +8379,8 @@
       <c r="D248" s="3">
         <v>18434</v>
       </c>
-      <c r="E248" s="5">
-        <v>0.52610000000000001</v>
+      <c r="E248" s="4">
+        <v>52.61</v>
       </c>
       <c r="F248" s="3">
         <v>2316</v>
@@ -8394,8 +8388,8 @@
       <c r="G248" s="3">
         <v>20750</v>
       </c>
-      <c r="H248" s="5">
-        <v>0.59219999999999995</v>
+      <c r="H248" s="4">
+        <v>59.22</v>
       </c>
       <c r="I248" s="3">
         <v>74529</v>
@@ -8403,7 +8397,7 @@
     </row>
     <row r="249" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B249" s="3">
         <v>4013</v>
@@ -8414,8 +8408,8 @@
       <c r="D249" s="3">
         <v>1298</v>
       </c>
-      <c r="E249" s="5">
-        <v>0.32340000000000002</v>
+      <c r="E249" s="4">
+        <v>32.340000000000003</v>
       </c>
       <c r="F249" s="4">
         <v>117</v>
@@ -8423,8 +8417,8 @@
       <c r="G249" s="3">
         <v>1415</v>
       </c>
-      <c r="H249" s="5">
-        <v>0.35260000000000002</v>
+      <c r="H249" s="4">
+        <v>35.26</v>
       </c>
       <c r="I249" s="3">
         <v>77960</v>
@@ -8432,7 +8426,7 @@
     </row>
     <row r="250" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B250" s="3">
         <v>45643</v>
@@ -8443,8 +8437,8 @@
       <c r="D250" s="3">
         <v>25373</v>
       </c>
-      <c r="E250" s="5">
-        <v>0.55589999999999995</v>
+      <c r="E250" s="4">
+        <v>55.59</v>
       </c>
       <c r="F250" s="3">
         <v>1774</v>
@@ -8452,8 +8446,8 @@
       <c r="G250" s="3">
         <v>27147</v>
       </c>
-      <c r="H250" s="5">
-        <v>0.5948</v>
+      <c r="H250" s="4">
+        <v>59.48</v>
       </c>
       <c r="I250" s="3">
         <v>71636</v>
@@ -8461,7 +8455,7 @@
     </row>
     <row r="251" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B251" s="3">
         <v>32382</v>
@@ -8472,8 +8466,8 @@
       <c r="D251" s="3">
         <v>16935</v>
       </c>
-      <c r="E251" s="5">
-        <v>0.52300000000000002</v>
+      <c r="E251" s="4">
+        <v>52.3</v>
       </c>
       <c r="F251" s="3">
         <v>2372</v>
@@ -8481,8 +8475,8 @@
       <c r="G251" s="3">
         <v>19307</v>
       </c>
-      <c r="H251" s="5">
-        <v>0.59619999999999995</v>
+      <c r="H251" s="4">
+        <v>59.62</v>
       </c>
       <c r="I251" s="3">
         <v>61886</v>
@@ -8490,7 +8484,7 @@
     </row>
     <row r="252" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B252" s="3">
         <v>4407</v>
@@ -8501,8 +8495,8 @@
       <c r="D252" s="3">
         <v>2010</v>
       </c>
-      <c r="E252" s="5">
-        <v>0.45610000000000001</v>
+      <c r="E252" s="4">
+        <v>45.61</v>
       </c>
       <c r="F252" s="4">
         <v>113</v>
@@ -8510,8 +8504,8 @@
       <c r="G252" s="3">
         <v>2123</v>
       </c>
-      <c r="H252" s="5">
-        <v>0.48170000000000002</v>
+      <c r="H252" s="4">
+        <v>48.17</v>
       </c>
       <c r="I252" s="3">
         <v>67132</v>
@@ -8519,7 +8513,7 @@
     </row>
     <row r="253" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B253" s="3">
         <v>11769</v>
@@ -8530,8 +8524,8 @@
       <c r="D253" s="3">
         <v>6204</v>
       </c>
-      <c r="E253" s="5">
-        <v>0.52710000000000001</v>
+      <c r="E253" s="4">
+        <v>52.71</v>
       </c>
       <c r="F253" s="4">
         <v>808</v>
@@ -8539,8 +8533,8 @@
       <c r="G253" s="3">
         <v>7012</v>
       </c>
-      <c r="H253" s="5">
-        <v>0.5958</v>
+      <c r="H253" s="4">
+        <v>59.58</v>
       </c>
       <c r="I253" s="3">
         <v>54569</v>
@@ -8548,7 +8542,7 @@
     </row>
     <row r="254" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B254" s="3">
         <v>8257</v>
@@ -8559,8 +8553,8 @@
       <c r="D254" s="3">
         <v>2238</v>
       </c>
-      <c r="E254" s="5">
-        <v>0.27100000000000002</v>
+      <c r="E254" s="4">
+        <v>27.1</v>
       </c>
       <c r="F254" s="4">
         <v>169</v>
@@ -8568,8 +8562,8 @@
       <c r="G254" s="3">
         <v>2407</v>
       </c>
-      <c r="H254" s="5">
-        <v>0.29149999999999998</v>
+      <c r="H254" s="4">
+        <v>29.15</v>
       </c>
       <c r="I254" s="3">
         <v>39876</v>
@@ -8577,7 +8571,7 @@
     </row>
     <row r="255" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B255" s="3">
         <v>8066</v>
@@ -8588,8 +8582,8 @@
       <c r="D255" s="3">
         <v>2474</v>
       </c>
-      <c r="E255" s="5">
-        <v>0.30669999999999997</v>
+      <c r="E255" s="4">
+        <v>30.67</v>
       </c>
       <c r="F255" s="4">
         <v>494</v>
@@ -8597,8 +8591,8 @@
       <c r="G255" s="3">
         <v>2968</v>
       </c>
-      <c r="H255" s="5">
-        <v>0.36799999999999999</v>
+      <c r="H255" s="4">
+        <v>36.799999999999997</v>
       </c>
       <c r="I255" s="3">
         <v>34898</v>
